--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
   <si>
     <t>lock_heuristic</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>full_open</t>
+  </si>
+  <si>
+    <t>full_lockdown</t>
+  </si>
+  <si>
+    <t>constant_gradient</t>
+  </si>
+  <si>
+    <t>time_gradient</t>
+  </si>
+  <si>
+    <t>age_group_gradient</t>
   </si>
   <si>
     <t>homogeneous</t>
@@ -410,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>33924241604.88572</v>
+        <v>39079816991.81699</v>
       </c>
       <c r="K2">
         <v>9611.6445436412</v>
       </c>
       <c r="L2">
-        <v>21141346861.19995</v>
+        <v>26296922248.13121</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -500,7 +515,7 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -512,19 +527,1311 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>33924241604.88572</v>
+      </c>
+      <c r="K3">
+        <v>9611.6445436412</v>
+      </c>
+      <c r="L3">
+        <v>21141346861.19995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>33924241604.88572</v>
+      </c>
+      <c r="K4">
+        <v>9611.6445436412</v>
+      </c>
+      <c r="L4">
+        <v>30752991404.84115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1115970.9</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>39079816991.81699</v>
+      </c>
+      <c r="K5">
+        <v>9611.6445436412</v>
+      </c>
+      <c r="L5">
+        <v>25182251179.92505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>39079816991.81699</v>
+      </c>
+      <c r="K6">
+        <v>9611.6445436412</v>
+      </c>
+      <c r="L6">
+        <v>35908566791.77242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1115970.9</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>33924241604.88572</v>
+      </c>
+      <c r="K7">
+        <v>9611.6445436412</v>
+      </c>
+      <c r="L7">
+        <v>20026675792.99379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>33925995653.714</v>
-      </c>
-      <c r="K3">
-        <v>8541.732513774996</v>
-      </c>
-      <c r="L3">
-        <v>31107750469.96376</v>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>1000000</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>60664369570.11818</v>
+      </c>
+      <c r="K8">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L8">
+        <v>-35397996892.10538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>1000000</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>47129313567.32207</v>
+      </c>
+      <c r="K9">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L9">
+        <v>-48933052894.90147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>47129313567.32207</v>
+      </c>
+      <c r="K10">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L10">
+        <v>23297638115.98821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>1115970.9</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>60664369570.11818</v>
+      </c>
+      <c r="K11">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L11">
+        <v>-43774655136.26017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>60664369570.11818</v>
+      </c>
+      <c r="K12">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L12">
+        <v>36832694118.78431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1115970.9</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>47129313567.32207</v>
+      </c>
+      <c r="K13">
+        <v>72230.69101088967</v>
+      </c>
+      <c r="L13">
+        <v>-57309711139.05625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>1000000</v>
+      </c>
+      <c r="E14">
+        <v>3000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>13504957690.27465</v>
+      </c>
+      <c r="K14">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L14">
+        <v>8017620539.633187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>1000000</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>13491944611.14966</v>
+      </c>
+      <c r="K15">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L15">
+        <v>8004607460.508196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>13491944611.14966</v>
+      </c>
+      <c r="K16">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L16">
+        <v>12130616102.57538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>1115970.9</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>13504957690.27465</v>
+      </c>
+      <c r="K17">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L17">
+        <v>7539123604.004877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3000</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>13504957690.27465</v>
+      </c>
+      <c r="K18">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L18">
+        <v>12143629181.70037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>1115970.9</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>13491944611.14966</v>
+      </c>
+      <c r="K19">
+        <v>4126.008642067186</v>
+      </c>
+      <c r="L19">
+        <v>7526110524.879889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>1000000</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>47264486577.51936</v>
+      </c>
+      <c r="K20">
+        <v>11679.54172903549</v>
+      </c>
+      <c r="L20">
+        <v>31731416050.5284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>1000000</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>44423368884.07</v>
+      </c>
+      <c r="K21">
+        <v>10405.38937251265</v>
+      </c>
+      <c r="L21">
+        <v>30584842447.52049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>46004238983.81645</v>
+      </c>
+      <c r="K22">
+        <v>13117.99197660339</v>
+      </c>
+      <c r="L22">
+        <v>41676110275.86206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>1115970.9</v>
+      </c>
+      <c r="E23">
+        <v>3000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>46813731959.72816</v>
+      </c>
+      <c r="K23">
+        <v>11363.15770526243</v>
+      </c>
+      <c r="L23">
+        <v>30383637055.28571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
+      <c r="J24">
+        <v>50861083930.57199</v>
+      </c>
+      <c r="K24">
+        <v>16302.23565408699</v>
+      </c>
+      <c r="L24">
+        <v>45482351098.28063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>1115970.9</v>
+      </c>
+      <c r="E25">
+        <v>3000</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>44370042464.50548</v>
+      </c>
+      <c r="K25">
+        <v>10372.32309130651</v>
+      </c>
+      <c r="L25">
+        <v>29372604499.63562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>1000000</v>
+      </c>
+      <c r="E26">
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>48604968243.73653</v>
+      </c>
+      <c r="K26">
+        <v>6599.589352433517</v>
+      </c>
+      <c r="L26">
+        <v>39827921229.49606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>1000000</v>
+      </c>
+      <c r="E27">
+        <v>3000</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>43358157984.81319</v>
+      </c>
+      <c r="K27">
+        <v>6421.709269477765</v>
+      </c>
+      <c r="L27">
+        <v>34817680515.6799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3000</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>46383353106.45229</v>
+      </c>
+      <c r="K28">
+        <v>11256.70913839588</v>
+      </c>
+      <c r="L28">
+        <v>42669332998.35352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>1115970.9</v>
+      </c>
+      <c r="E29">
+        <v>3000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>48280934385.98122</v>
+      </c>
+      <c r="K29">
+        <v>6390.377773746796</v>
+      </c>
+      <c r="L29">
+        <v>39041028013.01282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3000</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>52717911324.68665</v>
+      </c>
+      <c r="K30">
+        <v>14051.45304302846</v>
+      </c>
+      <c r="L30">
+        <v>48081798007.00252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>1115970.9</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>43152299827.87565</v>
+      </c>
+      <c r="K31">
+        <v>6264.098679714042</v>
+      </c>
+      <c r="L31">
+        <v>34094981565.81976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32">
+        <v>3000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>0.1</v>
+      </c>
+      <c r="J32">
+        <v>47435030617.85036</v>
+      </c>
+      <c r="K32">
+        <v>11814.58113896738</v>
+      </c>
+      <c r="L32">
+        <v>31722366000.00733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33">
+        <v>3000</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>44423368884.07</v>
+      </c>
+      <c r="K33">
+        <v>10405.38937251265</v>
+      </c>
+      <c r="L33">
+        <v>30584842447.52049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>46004238983.81645</v>
+      </c>
+      <c r="K34">
+        <v>13117.99197660339</v>
+      </c>
+      <c r="L34">
+        <v>41676110275.86206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>1115970.9</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>46813731959.72816</v>
+      </c>
+      <c r="K35">
+        <v>11363.15770526243</v>
+      </c>
+      <c r="L35">
+        <v>30383637055.28571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3000</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>50861083930.57199</v>
+      </c>
+      <c r="K36">
+        <v>16302.23565408699</v>
+      </c>
+      <c r="L36">
+        <v>45482351098.28063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>1115970.9</v>
+      </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>44370042464.50548</v>
+      </c>
+      <c r="K37">
+        <v>10372.32309130651</v>
+      </c>
+      <c r="L37">
+        <v>29372604499.63562</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>lock_heuristic</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>1115970.9</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -492,16 +492,16 @@
         <v>17</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>39079816991.81699</v>
+        <v>42592643039.4074</v>
       </c>
       <c r="K2">
-        <v>9611.6445436412</v>
+        <v>86572.5189843868</v>
       </c>
       <c r="L2">
-        <v>26296922248.13121</v>
+        <v>-60942014166.17091</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -515,7 +515,7 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -530,16 +530,16 @@
         <v>17</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>33924241604.88572</v>
+        <v>46239713241.33861</v>
       </c>
       <c r="K3">
-        <v>9611.6445436412</v>
+        <v>86572.5189843868</v>
       </c>
       <c r="L3">
-        <v>21141346861.19995</v>
+        <v>39317467962.03346</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -553,7 +553,7 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -568,16 +568,16 @@
         <v>17</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>33924241604.88572</v>
+        <v>46239713241.33861</v>
       </c>
       <c r="K4">
-        <v>9611.6445436412</v>
+        <v>86572.5189843868</v>
       </c>
       <c r="L4">
-        <v>30752991404.84115</v>
+        <v>-57294943964.23974</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -591,7 +591,7 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -606,16 +606,16 @@
         <v>17</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>39079816991.81699</v>
+        <v>42592643039.4074</v>
       </c>
       <c r="K5">
-        <v>9611.6445436412</v>
+        <v>86572.5189843868</v>
       </c>
       <c r="L5">
-        <v>25182251179.92505</v>
+        <v>35670397760.10226</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -623,13 +623,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E6">
         <v>3000</v>
@@ -644,16 +644,16 @@
         <v>17</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>39079816991.81699</v>
+        <v>56364459320.22247</v>
       </c>
       <c r="K6">
-        <v>9611.6445436412</v>
+        <v>141309.883627486</v>
       </c>
       <c r="L6">
-        <v>35908566791.77242</v>
+        <v>-111347062795.0613</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -661,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>3000</v>
@@ -682,16 +682,16 @@
         <v>17</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
-        <v>33924241604.88572</v>
+        <v>66763889294.45165</v>
       </c>
       <c r="K7">
-        <v>9611.6445436412</v>
+        <v>141309.883627486</v>
       </c>
       <c r="L7">
-        <v>20026675792.99379</v>
+        <v>56750085189.82864</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -705,7 +705,7 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>1000000</v>
+        <v>1115970.9</v>
       </c>
       <c r="E8">
         <v>3000</v>
@@ -723,13 +723,13 @@
         <v>0.1</v>
       </c>
       <c r="J8">
-        <v>60664369570.11818</v>
+        <v>66763889294.45165</v>
       </c>
       <c r="K8">
-        <v>72230.69101088967</v>
+        <v>141309.883627486</v>
       </c>
       <c r="L8">
-        <v>-35397996892.10538</v>
+        <v>-100947632820.8322</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -743,7 +743,7 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>3000</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47129313567.32207</v>
+        <v>56364459320.22247</v>
       </c>
       <c r="K9">
-        <v>72230.69101088967</v>
+        <v>141309.883627486</v>
       </c>
       <c r="L9">
-        <v>-48933052894.90147</v>
+        <v>46350655215.59948</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -775,13 +775,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E10">
         <v>3000</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>47129313567.32207</v>
+        <v>21487307387.5134</v>
       </c>
       <c r="K10">
-        <v>72230.69101088967</v>
+        <v>24930.75514717301</v>
       </c>
       <c r="L10">
-        <v>23297638115.98821</v>
+        <v>-8236254739.709903</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -813,13 +813,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>3000</v>
@@ -837,13 +837,13 @@
         <v>0.1</v>
       </c>
       <c r="J11">
-        <v>60664369570.11818</v>
+        <v>22903097916.96038</v>
       </c>
       <c r="K11">
-        <v>72230.69101088967</v>
+        <v>24930.75514717301</v>
       </c>
       <c r="L11">
-        <v>-43774655136.26017</v>
+        <v>21001533049.0074</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E12">
         <v>3000</v>
@@ -875,13 +875,13 @@
         <v>0.1</v>
       </c>
       <c r="J12">
-        <v>60664369570.11818</v>
+        <v>22903097916.96038</v>
       </c>
       <c r="K12">
-        <v>72230.69101088967</v>
+        <v>24930.75514717301</v>
       </c>
       <c r="L12">
-        <v>36832694118.78431</v>
+        <v>-6820464210.262915</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -889,13 +889,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>3000</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>47129313567.32207</v>
+        <v>21487307387.5134</v>
       </c>
       <c r="K13">
-        <v>72230.69101088967</v>
+        <v>24930.75514717301</v>
       </c>
       <c r="L13">
-        <v>-57309711139.05625</v>
+        <v>19585742519.56041</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -927,22 +927,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>1000000</v>
+        <v>1115970.9</v>
       </c>
       <c r="E14">
         <v>3000</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -951,13 +951,13 @@
         <v>0.1</v>
       </c>
       <c r="J14">
-        <v>13504957690.27465</v>
+        <v>48456141759.97523</v>
       </c>
       <c r="K14">
-        <v>4126.008642067186</v>
+        <v>75120.75462811689</v>
       </c>
       <c r="L14">
-        <v>8017620539.633187</v>
+        <v>-41713615378.38459</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -965,13 +965,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>1000000</v>
+        <v>1115970.9</v>
       </c>
       <c r="E15">
         <v>3000</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13491944611.14966</v>
+        <v>50684942962.54505</v>
       </c>
       <c r="K15">
-        <v>4126.008642067186</v>
+        <v>77722.01552168871</v>
       </c>
       <c r="L15">
-        <v>8004607460.508196</v>
+        <v>-42612043926.99168</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1003,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -1015,25 +1015,25 @@
         <v>3000</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>13491944611.14966</v>
+        <v>65930169873.3385</v>
       </c>
       <c r="K16">
-        <v>4126.008642067186</v>
+        <v>140993.4508542339</v>
       </c>
       <c r="L16">
-        <v>12130616102.57538</v>
+        <v>55926041922.053</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1041,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -1065,13 +1065,13 @@
         <v>0.1</v>
       </c>
       <c r="J17">
-        <v>13504957690.27465</v>
+        <v>51300681642.66727</v>
       </c>
       <c r="K17">
-        <v>4126.008642067186</v>
+        <v>65999.75824698222</v>
       </c>
       <c r="L17">
-        <v>7539123604.004877</v>
+        <v>-44128979706.3066</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1079,37 +1079,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E18">
         <v>3000</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13504957690.27465</v>
+        <v>51317720437.35149</v>
       </c>
       <c r="K18">
-        <v>4126.008642067186</v>
+        <v>77804.52320494152</v>
       </c>
       <c r="L18">
-        <v>12143629181.70037</v>
+        <v>-42084569545.33795</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1117,22 +1117,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>3000</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13491944611.14966</v>
+        <v>56463936041.78767</v>
       </c>
       <c r="K19">
-        <v>4126.008642067186</v>
+        <v>89484.82736377585</v>
       </c>
       <c r="L19">
-        <v>7526110524.879889</v>
+        <v>48862023532.60536</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1161,7 +1161,7 @@
         <v>0.5</v>
       </c>
       <c r="D20">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3000</v>
@@ -1176,16 +1176,16 @@
         <v>17</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>47264486577.51936</v>
+        <v>56477349130.4576</v>
       </c>
       <c r="K20">
-        <v>11679.54172903549</v>
+        <v>90211.1352530327</v>
       </c>
       <c r="L20">
-        <v>31731416050.5284</v>
+        <v>48830253195.07856</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1199,7 +1199,7 @@
         <v>0.5</v>
       </c>
       <c r="D21">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>3000</v>
@@ -1214,16 +1214,16 @@
         <v>17</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J21">
-        <v>44423368884.07</v>
+        <v>56546541819.74902</v>
       </c>
       <c r="K21">
-        <v>10405.38937251265</v>
+        <v>74741.60790008007</v>
       </c>
       <c r="L21">
-        <v>30584842447.52049</v>
+        <v>31886418577.71856</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1252,16 +1252,16 @@
         <v>17</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J22">
-        <v>46004238983.81645</v>
+        <v>19488398312.21037</v>
       </c>
       <c r="K22">
-        <v>13117.99197660339</v>
+        <v>54802.53660169739</v>
       </c>
       <c r="L22">
-        <v>41676110275.86206</v>
+        <v>1406939476.317512</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1269,7 +1269,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1281,25 +1281,25 @@
         <v>3000</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>46813731959.72816</v>
+        <v>50862075194.91363</v>
       </c>
       <c r="K23">
-        <v>11363.15770526243</v>
+        <v>74668.38658771967</v>
       </c>
       <c r="L23">
-        <v>30383637055.28571</v>
+        <v>-38739771787.52977</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -1319,25 +1319,25 @@
         <v>3000</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>50861083930.57199</v>
+        <v>56255565551.88802</v>
       </c>
       <c r="K24">
-        <v>16302.23565408699</v>
+        <v>88676.19331625178</v>
       </c>
       <c r="L24">
-        <v>45482351098.28063</v>
+        <v>48743597648.19408</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1345,7 +1345,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -1357,25 +1357,25 @@
         <v>3000</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J25">
-        <v>44370042464.50548</v>
+        <v>51439374210.35512</v>
       </c>
       <c r="K25">
-        <v>10372.32309130651</v>
+        <v>76730.26303211076</v>
       </c>
       <c r="L25">
-        <v>29372604499.63562</v>
+        <v>-40537414955.55535</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1389,16 +1389,16 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>3000</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -1407,13 +1407,13 @@
         <v>0.1</v>
       </c>
       <c r="J26">
-        <v>48604968243.73653</v>
+        <v>64155885024.78602</v>
       </c>
       <c r="K26">
-        <v>6599.589352433517</v>
+        <v>120699.2107363796</v>
       </c>
       <c r="L26">
-        <v>39827921229.49606</v>
+        <v>54863029238.69341</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1421,37 +1421,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
       <c r="D27">
-        <v>1000000</v>
+        <v>1115970.9</v>
       </c>
       <c r="E27">
         <v>3000</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J27">
-        <v>43358157984.81319</v>
+        <v>55960953803.97958</v>
       </c>
       <c r="K27">
-        <v>6421.709269477765</v>
+        <v>67811.26205139612</v>
       </c>
       <c r="L27">
-        <v>34817680515.6799</v>
+        <v>-26528206881.73056</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1459,13 +1459,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E28">
         <v>3000</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>46383353106.45229</v>
+        <v>54827685796.5411</v>
       </c>
       <c r="K28">
-        <v>11256.70913839588</v>
+        <v>63067.35659870425</v>
       </c>
       <c r="L28">
-        <v>42669332998.35352</v>
+        <v>-22241651992.20407</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1497,22 +1497,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>0.5</v>
       </c>
       <c r="D29">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>3000</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
@@ -1521,13 +1521,13 @@
         <v>0.1</v>
       </c>
       <c r="J29">
-        <v>48280934385.98122</v>
+        <v>63560382198.78526</v>
       </c>
       <c r="K29">
-        <v>6390.377773746796</v>
+        <v>116426.156875775</v>
       </c>
       <c r="L29">
-        <v>39041028013.01282</v>
+        <v>54658593704.31114</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1535,37 +1535,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>0.5</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="E30">
         <v>3000</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>52717911324.68665</v>
+        <v>54887589655.50546</v>
       </c>
       <c r="K30">
-        <v>14051.45304302846</v>
+        <v>62654.78543006637</v>
       </c>
       <c r="L30">
-        <v>48081798007.00252</v>
+        <v>-21699762725.94945</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1573,22 +1573,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>0.5</v>
       </c>
       <c r="D31">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>3000</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -1597,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>43152299827.87565</v>
+        <v>56484937497.39841</v>
       </c>
       <c r="K31">
-        <v>6264.098679714042</v>
+        <v>65029.09591327062</v>
       </c>
       <c r="L31">
-        <v>34094981565.81976</v>
+        <v>49514491330.25041</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1617,7 +1617,7 @@
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>3000</v>
@@ -1632,206 +1632,16 @@
         <v>17</v>
       </c>
       <c r="I32">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>47435030617.85036</v>
+        <v>56497511750.94523</v>
       </c>
       <c r="K32">
-        <v>11814.58113896738</v>
+        <v>65708.13851477773</v>
       </c>
       <c r="L32">
-        <v>31722366000.00733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>0.5</v>
-      </c>
-      <c r="D33">
-        <v>1000000</v>
-      </c>
-      <c r="E33">
-        <v>3000</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>44423368884.07</v>
-      </c>
-      <c r="K33">
-        <v>10405.38937251265</v>
-      </c>
-      <c r="L33">
-        <v>30584842447.52049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>3000</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>46004238983.81645</v>
-      </c>
-      <c r="K34">
-        <v>13117.99197660339</v>
-      </c>
-      <c r="L34">
-        <v>41676110275.86206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-      <c r="D35">
-        <v>1115970.9</v>
-      </c>
-      <c r="E35">
-        <v>3000</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35">
-        <v>0.1</v>
-      </c>
-      <c r="J35">
-        <v>46813731959.72816</v>
-      </c>
-      <c r="K35">
-        <v>11363.15770526243</v>
-      </c>
-      <c r="L35">
-        <v>30383637055.28571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>3000</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36">
-        <v>0.1</v>
-      </c>
-      <c r="J36">
-        <v>50861083930.57199</v>
-      </c>
-      <c r="K36">
-        <v>16302.23565408699</v>
-      </c>
-      <c r="L36">
-        <v>45482351098.28063</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>0.5</v>
-      </c>
-      <c r="D37">
-        <v>1115970.9</v>
-      </c>
-      <c r="E37">
-        <v>3000</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>44370042464.50548</v>
-      </c>
-      <c r="K37">
-        <v>10372.32309130651</v>
-      </c>
-      <c r="L37">
-        <v>29372604499.63562</v>
+        <v>49474672590.60275</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>lock_freq</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>lock_heuristic</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>n_a_tests</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>n_m_tests</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>policy_freq</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -540,17 +540,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>real</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>-60942014166.17091</v>
@@ -596,17 +598,19 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>real</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>35670397760.10226</v>
@@ -652,17 +656,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>real</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>39317467962.03346</v>
@@ -708,17 +714,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>real</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>-57294943964.23974</v>
@@ -764,17 +772,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>full_open</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>-111347062795.0613</v>
@@ -820,17 +830,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>full_open</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>46350655215.59948</v>
@@ -876,17 +888,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>full_open</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>56750085189.82864</v>
@@ -932,17 +946,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>full_open</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>-100947632820.8322</v>
@@ -988,17 +1004,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>full_lockdown</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>-8236254739.709903</v>
@@ -1044,17 +1062,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>full_lockdown</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>19585742519.56041</v>
@@ -1100,17 +1120,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>full_lockdown</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>21001533049.0074</v>
@@ -1156,17 +1178,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>(1,)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>full_lockdown</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>-6820464210.262915</v>
@@ -1212,17 +1236,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>30000</v>
-      </c>
       <c r="K14" t="n">
         <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
         <v>55926041922.053</v>
@@ -1268,17 +1294,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>-42612043926.99168</v>
@@ -1324,17 +1352,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>48830253195.07856</v>
@@ -1380,17 +1410,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>30000</v>
-      </c>
       <c r="K17" t="n">
         <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
         <v>48862023532.60536</v>
@@ -1436,17 +1468,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>30000</v>
-      </c>
       <c r="K18" t="n">
         <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
         <v>-42084569545.33795</v>
@@ -1492,17 +1526,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>30000</v>
-      </c>
       <c r="K19" t="n">
         <v>30000</v>
       </c>
       <c r="L19" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M19" t="n">
         <v>-41713615378.38459</v>
@@ -1548,17 +1584,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>-44128979706.3066</v>
@@ -1604,17 +1642,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>constant_gradient</t>
         </is>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>31886418577.71856</v>
@@ -1660,17 +1700,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>(14,)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>time_gradient</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>30000</v>
-      </c>
       <c r="K22" t="n">
         <v>30000</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>30000</v>
       </c>
       <c r="M22" t="n">
         <v>54863029238.69341</v>
@@ -1716,17 +1758,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>(14,)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>time_gradient</t>
         </is>
       </c>
-      <c r="J23" t="n">
-        <v>30000</v>
-      </c>
       <c r="K23" t="n">
         <v>30000</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>30000</v>
       </c>
       <c r="M23" t="n">
         <v>-40537414955.55535</v>
@@ -1772,17 +1816,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>(14,)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>time_gradient</t>
         </is>
       </c>
-      <c r="J24" t="n">
-        <v>30000</v>
-      </c>
       <c r="K24" t="n">
         <v>30000</v>
       </c>
       <c r="L24" t="n">
-        <v>14</v>
+        <v>30000</v>
       </c>
       <c r="M24" t="n">
         <v>-38739771787.52977</v>
@@ -1828,17 +1874,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>(14,)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>time_gradient</t>
         </is>
       </c>
-      <c r="J25" t="n">
-        <v>30000</v>
-      </c>
       <c r="K25" t="n">
         <v>30000</v>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>30000</v>
       </c>
       <c r="M25" t="n">
         <v>48743597648.19408</v>
@@ -1884,17 +1932,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>30000</v>
-      </c>
       <c r="K26" t="n">
         <v>30000</v>
       </c>
       <c r="L26" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M26" t="n">
         <v>54658593704.31114</v>
@@ -1940,17 +1990,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>-22241651992.20407</v>
@@ -1996,17 +2048,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>49474672590.60275</v>
@@ -2052,17 +2106,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J29" t="n">
-        <v>30000</v>
-      </c>
       <c r="K29" t="n">
         <v>30000</v>
       </c>
       <c r="L29" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M29" t="n">
         <v>49514491330.25041</v>
@@ -2108,17 +2164,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J30" t="n">
-        <v>30000</v>
-      </c>
       <c r="K30" t="n">
         <v>30000</v>
       </c>
       <c r="L30" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M30" t="n">
         <v>-21699762725.94945</v>
@@ -2164,17 +2222,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>(90.0,)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>age_group_gradient</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>30000</v>
-      </c>
       <c r="K31" t="n">
         <v>30000</v>
       </c>
       <c r="L31" t="n">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="M31" t="n">
         <v>-26528206881.73056</v>
@@ -2189,6 +2249,2694 @@
       </c>
       <c r="P31" t="n">
         <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70609.42646329911</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>55248903008.40087</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>31952144916.68504</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90</v>
+      </c>
+      <c r="C33" t="n">
+        <v>72770.21126355194</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>58575834490.03935</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>34566150613.46515</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+      <c r="C34" t="n">
+        <v>72575.63686575233</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>58761066780.02354</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>34815580460.39639</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90</v>
+      </c>
+      <c r="C35" t="n">
+        <v>72626.83825766931</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>58405335774.27226</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>34442956151.56657</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65504.18637420758</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>51498969087.53556</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-43214140303.53591</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90</v>
+      </c>
+      <c r="C37" t="n">
+        <v>72574.99232073039</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>58595637068.32822</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>34650363408.82608</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90</v>
+      </c>
+      <c r="C38" t="n">
+        <v>70264.9097229483</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>55278768392.48474</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>32095679587.72554</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>70380.25073169243</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>54131679953.45905</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-47631776025.3873</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66138.44987851797</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>52246159198.95346</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-43384037663.80009</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90</v>
+      </c>
+      <c r="C41" t="n">
+        <v>69815.52013981574</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>54493172595.79456</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-46453734193.06048</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90</v>
+      </c>
+      <c r="C42" t="n">
+        <v>66376.88627788174</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>51831088583.90167</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-44143865675.68058</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90</v>
+      </c>
+      <c r="C43" t="n">
+        <v>65781.16726297956</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>52279338691.92007</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-42834259929.98669</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>70268.23183543245</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>54337071506.28812</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-47264415313.59904</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>90</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70088.58143153094</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>54633898401.75618</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-46707830236.2696</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90</v>
+      </c>
+      <c r="C46" t="n">
+        <v>69449.44171229913</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>54668021013.39735</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-45749569588.65679</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90</v>
+      </c>
+      <c r="C47" t="n">
+        <v>65701.47597744269</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>51596433952.2132</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-43401938302.30616</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90</v>
+      </c>
+      <c r="C48" t="n">
+        <v>66270.01018821764</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>51469956935.85137</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-44350464196.43094</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90</v>
+      </c>
+      <c r="C49" t="n">
+        <v>72114.07286961455</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>58587052899.0316</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>34793854245.52024</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90</v>
+      </c>
+      <c r="C50" t="n">
+        <v>71235.10013623393</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>55457915585.82937</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>31954723751.017</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90</v>
+      </c>
+      <c r="C51" t="n">
+        <v>69806.52521836953</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>55391522954.82618</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>32359672779.96455</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90</v>
+      </c>
+      <c r="C52" t="n">
+        <v>72368.38586566011</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>58484822482.14301</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>34607716216.78423</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90</v>
+      </c>
+      <c r="C53" t="n">
+        <v>70910.33984586077</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>55225424785.53413</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>31829383827.05059</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90</v>
+      </c>
+      <c r="C54" t="n">
+        <v>70312.58030988924</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>55385437495.82391</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>32186620335.97561</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>90</v>
+      </c>
+      <c r="C55" t="n">
+        <v>67731.0221343353</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>54384578665.63036</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-43548333162.80062</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>linearization_heuristic</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90</v>
+      </c>
+      <c r="C56" t="n">
+        <v>67731.0221343353</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54384578665.63036</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-43548333162.80062</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>90</v>
+      </c>
+      <c r="C57" t="n">
+        <v>69815.52013981574</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>54493172595.79456</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-46453734193.06048</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>90</v>
+      </c>
+      <c r="C58" t="n">
+        <v>70088.58143153094</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>54633898401.75618</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>14</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-46707830236.2696</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90</v>
+      </c>
+      <c r="C59" t="n">
+        <v>72626.83825766931</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>58405335774.27226</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>34442956151.56657</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>90</v>
+      </c>
+      <c r="C60" t="n">
+        <v>65701.47597744269</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>51596433952.2132</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-43401938302.30616</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90</v>
+      </c>
+      <c r="C61" t="n">
+        <v>70312.58030988924</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>55385437495.82391</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>32186620335.97561</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90</v>
+      </c>
+      <c r="C62" t="n">
+        <v>66376.88627788174</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>51831088583.90167</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-44143865675.68058</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>90</v>
+      </c>
+      <c r="C63" t="n">
+        <v>72770.21126355194</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>58575834490.03935</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>34566150613.46515</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>90</v>
+      </c>
+      <c r="C64" t="n">
+        <v>72575.63686575233</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>58761066780.02354</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M64" t="n">
+        <v>34815580460.39639</v>
+      </c>
+      <c r="N64" t="n">
+        <v>7</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>90</v>
+      </c>
+      <c r="C65" t="n">
+        <v>72574.99232073039</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>58595637068.32822</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M65" t="n">
+        <v>34650363408.82608</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>90</v>
+      </c>
+      <c r="C66" t="n">
+        <v>66138.44987851797</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>52246159198.95346</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-43384037663.80009</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>90</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72114.07286961455</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>58587052899.0316</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>34793854245.52024</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>90</v>
+      </c>
+      <c r="C68" t="n">
+        <v>70268.23183543245</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>54337071506.28812</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-47264415313.59904</v>
+      </c>
+      <c r="N68" t="n">
+        <v>7</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>90</v>
+      </c>
+      <c r="C69" t="n">
+        <v>70380.25073169243</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>54131679953.45905</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-47631776025.3873</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>90</v>
+      </c>
+      <c r="C70" t="n">
+        <v>69449.44171229913</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>54668021013.39735</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-45749569588.65679</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90</v>
+      </c>
+      <c r="C71" t="n">
+        <v>70609.42646329911</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>55248903008.40087</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M71" t="n">
+        <v>31952144916.68504</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>90</v>
+      </c>
+      <c r="C72" t="n">
+        <v>65781.16726297956</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>52279338691.92007</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-42834259929.98669</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>90</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71235.10013623393</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>55457915585.82937</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>31954723751.017</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>90</v>
+      </c>
+      <c r="C74" t="n">
+        <v>70910.33984586077</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>55225424785.53413</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>31829383827.05059</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>90</v>
+      </c>
+      <c r="C75" t="n">
+        <v>66270.01018821764</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>51469956935.85137</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-44350464196.43094</v>
+      </c>
+      <c r="N75" t="n">
+        <v>7</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>90</v>
+      </c>
+      <c r="C76" t="n">
+        <v>65504.18637420758</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>51498969087.53556</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-43214140303.53591</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>90</v>
+      </c>
+      <c r="C77" t="n">
+        <v>70264.9097229483</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>55278768392.48474</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M77" t="n">
+        <v>32095679587.72554</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90</v>
+      </c>
+      <c r="C78" t="n">
+        <v>69806.52521836953</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>55391522954.82618</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M78" t="n">
+        <v>32359672779.96455</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>90</v>
+      </c>
+      <c r="C79" t="n">
+        <v>72368.38586566011</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>58484822482.14301</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M79" t="n">
+        <v>34607716216.78423</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>42592643039.4074</v>
+        <v>46239713241.33861</v>
       </c>
       <c r="M2">
         <v>86572.5189843868</v>
       </c>
       <c r="N2">
-        <v>-60942014166.17091</v>
+        <v>-57294943964.23974</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>42592643039.4074</v>
+        <v>46239713241.33861</v>
       </c>
       <c r="M5">
         <v>86572.5189843868</v>
       </c>
       <c r="N5">
-        <v>35670397760.10226</v>
+        <v>39317467962.03346</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>56364459320.22247</v>
+        <v>66763889294.45165</v>
       </c>
       <c r="M6">
         <v>141309.883627486</v>
       </c>
       <c r="N6">
-        <v>-111347062795.0613</v>
+        <v>-100947632820.8322</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>56364459320.22247</v>
+        <v>66763889294.45165</v>
       </c>
       <c r="M9">
         <v>141309.883627486</v>
       </c>
       <c r="N9">
-        <v>46350655215.59948</v>
+        <v>56750085189.82864</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21487307387.5134</v>
+        <v>22903097916.96038</v>
       </c>
       <c r="M10">
         <v>24930.75514717301</v>
       </c>
       <c r="N10">
-        <v>-8236254739.709903</v>
+        <v>-6820464210.262915</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1081,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21487307387.5134</v>
+        <v>22903097916.96038</v>
       </c>
       <c r="M13">
         <v>24930.75514717301</v>
       </c>
       <c r="N13">
-        <v>19585742519.56041</v>
+        <v>21001533049.0074</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>50684942962.54505</v>
+        <v>48057980600.26026</v>
       </c>
       <c r="M15">
         <v>77722.01552168871</v>
       </c>
       <c r="N15">
-        <v>-42612043926.99168</v>
+        <v>-45239006289.27642</v>
       </c>
       <c r="O15">
         <v>90</v>
@@ -1281,13 +1281,13 @@
         <v>0.1</v>
       </c>
       <c r="L17">
-        <v>51300681642.66727</v>
+        <v>54563111085.90347</v>
       </c>
       <c r="M17">
         <v>65999.75824698222</v>
       </c>
       <c r="N17">
-        <v>-44128979706.3066</v>
+        <v>-40866550263.07041</v>
       </c>
       <c r="O17">
         <v>90</v>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>51317720437.35149</v>
+        <v>48653063359.69241</v>
       </c>
       <c r="M18">
         <v>77804.52320494152</v>
       </c>
       <c r="N18">
-        <v>-42084569545.33795</v>
+        <v>-44749226622.99699</v>
       </c>
       <c r="O18">
         <v>90</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>56463936041.78767</v>
+        <v>53382151808.66503</v>
       </c>
       <c r="M19">
         <v>89484.82736377585</v>
       </c>
       <c r="N19">
-        <v>48862023532.60536</v>
+        <v>45780239299.4827</v>
       </c>
       <c r="O19">
         <v>90</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>56477349130.4576</v>
+        <v>53351363855.32731</v>
       </c>
       <c r="M20">
         <v>90211.1352530327</v>
       </c>
       <c r="N20">
-        <v>48830253195.07856</v>
+        <v>45704267919.94827</v>
       </c>
       <c r="O20">
         <v>90</v>
@@ -1481,13 +1481,13 @@
         <v>0.1</v>
       </c>
       <c r="L21">
-        <v>56546541819.74902</v>
+        <v>59945907649.08233</v>
       </c>
       <c r="M21">
         <v>74741.60790008007</v>
       </c>
       <c r="N21">
-        <v>31886418577.71856</v>
+        <v>35285784407.0519</v>
       </c>
       <c r="O21">
         <v>90</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>50862075194.91363</v>
+        <v>48339361013.08578</v>
       </c>
       <c r="M22">
         <v>74668.38658771967</v>
       </c>
       <c r="N22">
-        <v>-38739771787.52977</v>
+        <v>-41262485969.35755</v>
       </c>
       <c r="O22">
         <v>14</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>56255565551.88802</v>
+        <v>53169029810.14823</v>
       </c>
       <c r="M23">
         <v>88676.19331625178</v>
       </c>
       <c r="N23">
-        <v>48743597648.19408</v>
+        <v>45657061906.45429</v>
       </c>
       <c r="O23">
         <v>14</v>
@@ -1781,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>54827685796.5411</v>
+        <v>51814563507.13242</v>
       </c>
       <c r="M27">
         <v>63067.35659870425</v>
       </c>
       <c r="N27">
-        <v>-22241651992.20407</v>
+        <v>-25254774281.61276</v>
       </c>
       <c r="O27">
         <v>90</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>54887589655.50546</v>
+        <v>51911353129.24585</v>
       </c>
       <c r="M29">
         <v>62654.78543006637</v>
       </c>
       <c r="N29">
-        <v>-21699762725.94945</v>
+        <v>-24675999252.20902</v>
       </c>
       <c r="O29">
         <v>90</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>56484937497.39841</v>
+        <v>53394946530.27552</v>
       </c>
       <c r="M30">
         <v>65029.09591327062</v>
       </c>
       <c r="N30">
-        <v>49514491330.25041</v>
+        <v>46424500363.12746</v>
       </c>
       <c r="O30">
         <v>90</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>56497511750.94523</v>
+        <v>53368735802.11587</v>
       </c>
       <c r="M31">
         <v>65708.13851477773</v>
       </c>
       <c r="N31">
-        <v>49474672590.60275</v>
+        <v>46345896641.77342</v>
       </c>
       <c r="O31">
         <v>90</v>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3591,16 +3591,16 @@
         <v>90</v>
       </c>
       <c r="C55" t="n">
-        <v>10713.76808913872</v>
+        <v>9645.637034630709</v>
       </c>
       <c r="D55" t="n">
         <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>58727117963.26659</v>
+        <v>55762845584.54617</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>3000</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
         <v>30000</v>
       </c>
       <c r="M55" t="n">
-        <v>46129310637.74027</v>
+        <v>44360104247.05219</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3647,16 +3647,16 @@
         <v>90</v>
       </c>
       <c r="C56" t="n">
-        <v>10177.14607948956</v>
+        <v>10713.76808913872</v>
       </c>
       <c r="D56" t="n">
         <v>0.5</v>
       </c>
       <c r="E56" t="n">
-        <v>55738139841.46416</v>
+        <v>58727117963.26659</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M56" t="n">
-        <v>43678913373.93842</v>
+        <v>46129310637.74027</v>
       </c>
       <c r="N56" t="n">
         <v>7</v>
@@ -3703,13 +3703,13 @@
         <v>90</v>
       </c>
       <c r="C57" t="n">
-        <v>12080.46240998385</v>
+        <v>10177.14607948956</v>
       </c>
       <c r="D57" t="n">
         <v>0.5</v>
       </c>
       <c r="E57" t="n">
-        <v>56680079681.56863</v>
+        <v>55738139841.46416</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>55702319150.28203</v>
+        <v>43678913373.93842</v>
       </c>
       <c r="N57" t="n">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
     </row>
     <row r="58">
@@ -3759,16 +3759,16 @@
         <v>90</v>
       </c>
       <c r="C58" t="n">
-        <v>11622.68722498571</v>
+        <v>12080.46240998385</v>
       </c>
       <c r="D58" t="n">
         <v>0.5</v>
       </c>
       <c r="E58" t="n">
-        <v>58910015612.88635</v>
+        <v>56680079681.56863</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>3000</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3787,16 +3787,16 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>45210742890.44472</v>
+        <v>55702319150.28203</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3815,13 +3815,13 @@
         <v>90</v>
       </c>
       <c r="C59" t="n">
-        <v>82591.51436385387</v>
+        <v>11622.68722498571</v>
       </c>
       <c r="D59" t="n">
         <v>0.5</v>
       </c>
       <c r="E59" t="n">
-        <v>66950218360.98647</v>
+        <v>58910015612.88635</v>
       </c>
       <c r="F59" t="n">
         <v>0.1</v>
@@ -3835,7 +3835,7 @@
         <v>3000</v>
       </c>
       <c r="I59" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3843,16 +3843,16 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>59880157210.64563</v>
+        <v>45210742890.44472</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
     </row>
     <row r="60">
@@ -3871,16 +3871,16 @@
         <v>90</v>
       </c>
       <c r="C60" t="n">
-        <v>9884.853172690518</v>
+        <v>82591.51436385387</v>
       </c>
       <c r="D60" t="n">
         <v>0.5</v>
       </c>
       <c r="E60" t="n">
-        <v>55848690720.39031</v>
+        <v>66950218360.98647</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>30000</v>
       </c>
       <c r="M60" t="n">
-        <v>44142441480.69099</v>
+        <v>59880157210.64563</v>
       </c>
       <c r="N60" t="n">
         <v>7</v>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3927,13 +3927,13 @@
         <v>90</v>
       </c>
       <c r="C61" t="n">
-        <v>11305.87489581958</v>
+        <v>11213.49945070745</v>
       </c>
       <c r="D61" t="n">
         <v>0.5</v>
       </c>
       <c r="E61" t="n">
-        <v>58780683525.81576</v>
+        <v>58992311296.69362</v>
       </c>
       <c r="F61" t="n">
         <v>0.1</v>
@@ -3947,7 +3947,7 @@
         <v>3000</v>
       </c>
       <c r="I61" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3955,16 +3955,16 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>45498835683.62663</v>
+        <v>45780126613.22045</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>90</v>
       </c>
       <c r="C62" t="n">
-        <v>11305.87489581958</v>
+        <v>9884.853172690518</v>
       </c>
       <c r="D62" t="n">
         <v>0.5</v>
       </c>
       <c r="E62" t="n">
-        <v>58780683525.81576</v>
+        <v>55848690720.39031</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4007,24 +4007,24 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
+          <t>linearization_heuristic</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>45498835683.62663</v>
+        <v>44142441480.69099</v>
       </c>
       <c r="N62" t="n">
         <v>7</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
+          <t>linearization_heuristic</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -4039,13 +4039,13 @@
         <v>90</v>
       </c>
       <c r="C63" t="n">
-        <v>11622.68722498571</v>
+        <v>11305.87489581958</v>
       </c>
       <c r="D63" t="n">
         <v>0.5</v>
       </c>
       <c r="E63" t="n">
-        <v>58910015612.88635</v>
+        <v>58780683525.81576</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
@@ -4059,11 +4059,11 @@
         <v>3000</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
+          <t>linearization_heuristic</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -4073,14 +4073,14 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>45210742890.44472</v>
+        <v>45498835683.62663</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>linearization_heuristic_Prop_Bouncing</t>
+          <t>linearization_heuristic</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -4095,16 +4095,16 @@
         <v>90</v>
       </c>
       <c r="C64" t="n">
-        <v>10177.14607948956</v>
+        <v>11305.87489581958</v>
       </c>
       <c r="D64" t="n">
         <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>55738139841.46416</v>
+        <v>58780683525.81576</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>43678913373.93842</v>
+        <v>45498835683.62663</v>
       </c>
       <c r="N64" t="n">
         <v>7</v>
@@ -4151,16 +4151,16 @@
         <v>90</v>
       </c>
       <c r="C65" t="n">
-        <v>10007.33768147751</v>
+        <v>11622.68722498571</v>
       </c>
       <c r="D65" t="n">
         <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>55734169222.36889</v>
+        <v>58910015612.88635</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>43894103002.85053</v>
+        <v>45210742890.44472</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="C66" t="n">
-        <v>9884.853172690518</v>
+        <v>10177.14607948956</v>
       </c>
       <c r="D66" t="n">
         <v>0.5</v>
       </c>
       <c r="E66" t="n">
-        <v>55848690720.39031</v>
+        <v>55738139841.46416</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>44142441480.69099</v>
+        <v>43678913373.93842</v>
       </c>
       <c r="N66" t="n">
         <v>7</v>
@@ -4263,16 +4263,16 @@
         <v>90</v>
       </c>
       <c r="C67" t="n">
-        <v>82591.51436385387</v>
+        <v>10007.33768147751</v>
       </c>
       <c r="D67" t="n">
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>66950218360.98647</v>
+        <v>55734169222.36889</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>3000</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4291,16 +4291,16 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>59880157210.64563</v>
+        <v>43894103002.85053</v>
       </c>
       <c r="N67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
     </row>
     <row r="68">
@@ -4319,13 +4319,13 @@
         <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>12080.46240998385</v>
+        <v>9884.853172690518</v>
       </c>
       <c r="D68" t="n">
         <v>0.5</v>
       </c>
       <c r="E68" t="n">
-        <v>56680079681.56863</v>
+        <v>55848690720.39031</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>30000</v>
       </c>
       <c r="M68" t="n">
-        <v>55702319150.28203</v>
+        <v>44142441480.69099</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
     </row>
     <row r="69">
@@ -4375,51 +4375,275 @@
         <v>90</v>
       </c>
       <c r="C69" t="n">
+        <v>9645.637034630709</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>55762845584.54617</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>44360104247.05219</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>90</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11213.49945070745</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>58992311296.69362</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M70" t="n">
+        <v>45780126613.22045</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>1115970.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90</v>
+      </c>
+      <c r="C71" t="n">
+        <v>82591.51436385387</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>66950218360.98647</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M71" t="n">
+        <v>59880157210.64563</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>90</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12080.46240998385</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>56680079681.56863</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I72" t="n">
+        <v>14</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>55702319150.28203</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>linearization_heuristic_Prop_Bouncing</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>90</v>
+      </c>
+      <c r="C73" t="n">
         <v>10713.76808913872</v>
       </c>
-      <c r="D69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="D73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E73" t="n">
         <v>58727117963.26659</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F73" t="n">
         <v>0.1</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I73" t="n">
         <v>14</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>linearization_heuristic_Prop_Bouncing</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L69" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M69" t="n">
+      <c r="K73" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M73" t="n">
         <v>46129310637.74027</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N73" t="n">
         <v>7</v>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>linearization_heuristic_Prop_Bouncing</t>
         </is>
       </c>
-      <c r="P69" t="n">
+      <c r="P73" t="n">
         <v>1115970.9</v>
       </c>
     </row>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioacamelogomez/Dropbox/covid-optimization/benchmarks/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552325D-7FA3-524F-A255-D86E8484E750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1760" windowWidth="28320" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="21">
   <si>
     <t>groups</t>
   </si>
@@ -61,10 +55,10 @@
     <t>reward</t>
   </si>
   <si>
-    <t>policy_freq</t>
+    <t>test_freq</t>
   </si>
   <si>
-    <t>test_freq</t>
+    <t>lock_freq</t>
   </si>
   <si>
     <t>all</t>
@@ -79,23 +73,17 @@
     <t>full_lockdown</t>
   </si>
   <si>
-    <t>constant_gradient</t>
+    <t>homogeneous</t>
   </si>
   <si>
-    <t>time_gradient</t>
-  </si>
-  <si>
-    <t>age_group_gradient</t>
-  </si>
-  <si>
-    <t>homogeneous</t>
+    <t>(1,)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +146,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,20 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -566,40 +504,40 @@
         <v>0.5</v>
       </c>
       <c r="F2">
-        <v>1115970.8999999999</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>3000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>42592643039.407402</v>
+        <v>41698850726.2096</v>
       </c>
       <c r="M2">
-        <v>86572.518984386799</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N2">
-        <v>-60942014166.170914</v>
+        <v>40948841564.29409</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -616,40 +554,40 @@
         <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G3">
         <v>3000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>46239713241.338608</v>
+        <v>41698850726.2096</v>
       </c>
       <c r="M3">
-        <v>86572.518984386799</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N3">
-        <v>39317467962.033463</v>
+        <v>25157418169.9888</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -666,40 +604,40 @@
         <v>0.5</v>
       </c>
       <c r="F4">
-        <v>1115970.8999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.1</v>
       </c>
       <c r="L4">
-        <v>46239713241.338608</v>
+        <v>41709745390.4251</v>
       </c>
       <c r="M4">
-        <v>86572.518984386799</v>
+        <v>13800.73822873106</v>
       </c>
       <c r="N4">
-        <v>-57294943964.239738</v>
+        <v>40982219426.49348</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -716,7 +654,7 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G5">
         <v>3000</v>
@@ -728,28 +666,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>42592643039.407402</v>
+        <v>42710855670.93616</v>
       </c>
       <c r="M5">
-        <v>86572.518984386799</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N5">
-        <v>35670397760.102257</v>
+        <v>26169423114.71537</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -760,46 +698,46 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1115970.8999999999</v>
+        <v>1115970.9</v>
       </c>
       <c r="G6">
         <v>3000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>56364459320.222473</v>
+        <v>41709745390.4251</v>
       </c>
       <c r="M6">
-        <v>141309.88362748601</v>
+        <v>13800.73822873106</v>
       </c>
       <c r="N6">
-        <v>-111347062795.06129</v>
+        <v>25580997164.71208</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -810,7 +748,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -825,31 +763,31 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>66763889294.451653</v>
+        <v>42722019395.77868</v>
       </c>
       <c r="M7">
-        <v>141309.88362748601</v>
+        <v>13802.4446650775</v>
       </c>
       <c r="N7">
-        <v>56750085189.828644</v>
+        <v>41994424176.77325</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -860,13 +798,13 @@
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="F8">
-        <v>1115970.8999999999</v>
+        <v>1115970.9</v>
       </c>
       <c r="G8">
         <v>3000</v>
@@ -875,31 +813,31 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>66763889294.451653</v>
+        <v>42722019395.77868</v>
       </c>
       <c r="M8">
-        <v>141309.88362748601</v>
+        <v>13802.4446650775</v>
       </c>
       <c r="N8">
-        <v>-100947632820.8322</v>
+        <v>26591297581.68648</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -910,7 +848,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -928,28 +866,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L9">
-        <v>56364459320.222473</v>
+        <v>41542231923.46268</v>
       </c>
       <c r="M9">
-        <v>141309.88362748601</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N9">
-        <v>46350655215.59948</v>
+        <v>40792222761.54716</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -960,13 +898,13 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>1115970.8999999999</v>
+        <v>1115970.9</v>
       </c>
       <c r="G10">
         <v>3000</v>
@@ -978,28 +916,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L10">
-        <v>21487307387.513401</v>
+        <v>41542231923.46268</v>
       </c>
       <c r="M10">
-        <v>24930.755147173011</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N10">
-        <v>-8236254739.7099028</v>
+        <v>25000799367.24187</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1010,13 +948,13 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G11">
         <v>3000</v>
@@ -1025,31 +963,31 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K11">
         <v>0.1</v>
       </c>
       <c r="L11">
-        <v>22903097916.960381</v>
+        <v>41554935216.22261</v>
       </c>
       <c r="M11">
-        <v>24930.755147173011</v>
+        <v>13802.4446650775</v>
       </c>
       <c r="N11">
-        <v>21001533049.007401</v>
+        <v>25424213402.13041</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1060,13 +998,13 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1115970.8999999999</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>3000</v>
@@ -1078,28 +1016,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22903097916.960381</v>
+        <v>42710855670.93616</v>
       </c>
       <c r="M12">
-        <v>24930.755147173011</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N12">
-        <v>-6820464210.2629147</v>
+        <v>41960846509.02068</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1110,7 +1048,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -1125,31 +1063,31 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
-        <v>21487307387.513401</v>
+        <v>41554935216.22261</v>
       </c>
       <c r="M13">
-        <v>24930.755147173011</v>
+        <v>13802.4446650775</v>
       </c>
       <c r="N13">
-        <v>19585742519.56041</v>
+        <v>40827339997.21714</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1160,13 +1098,13 @@
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>1115970.8999999999</v>
+        <v>1115970.9</v>
       </c>
       <c r="G14">
         <v>3000</v>
@@ -1178,295 +1116,295 @@
         <v>30000</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>42857105490.9956</v>
+      </c>
+      <c r="M14">
+        <v>13800.73822873106</v>
+      </c>
+      <c r="N14">
+        <v>26728357265.28257</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3000</v>
+      </c>
+      <c r="H15">
+        <v>30000</v>
+      </c>
+      <c r="I15">
+        <v>30000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>42857105490.9956</v>
+      </c>
+      <c r="M15">
+        <v>13800.73822873106</v>
+      </c>
+      <c r="N15">
+        <v>42129579527.06398</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>1115970.9</v>
+      </c>
+      <c r="G16">
+        <v>3000</v>
+      </c>
+      <c r="H16">
+        <v>30000</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>42847482376.25683</v>
+      </c>
+      <c r="M16">
+        <v>14150.38993786064</v>
+      </c>
+      <c r="N16">
+        <v>26306049820.03605</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <v>30000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>42847482376.25683</v>
+      </c>
+      <c r="M17">
+        <v>14150.38993786064</v>
+      </c>
+      <c r="N17">
+        <v>42097473214.34135</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3000</v>
+      </c>
+      <c r="H18">
+        <v>30000</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
         <v>0.1</v>
       </c>
-      <c r="L14">
-        <v>48456141759.975227</v>
-      </c>
-      <c r="M14">
-        <v>75120.754628116891</v>
-      </c>
-      <c r="N14">
-        <v>-41713615378.38459</v>
-      </c>
-      <c r="O14">
-        <v>90</v>
-      </c>
-      <c r="P14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>3000</v>
-      </c>
-      <c r="H15">
-        <v>30000</v>
-      </c>
-      <c r="I15">
-        <v>30000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15">
+      <c r="L18">
+        <v>56475174528.84918</v>
+      </c>
+      <c r="M18">
+        <v>95283.58993310381</v>
+      </c>
+      <c r="N18">
+        <v>48987969855.91022</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>1115970.9</v>
+      </c>
+      <c r="G19">
+        <v>3000</v>
+      </c>
+      <c r="H19">
+        <v>30000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
         <v>0.1</v>
       </c>
-      <c r="L15">
-        <v>65930169873.338501</v>
-      </c>
-      <c r="M15">
-        <v>140993.4508542339</v>
-      </c>
-      <c r="N15">
-        <v>55926041922.053001</v>
-      </c>
-      <c r="O15">
-        <v>90</v>
-      </c>
-      <c r="P15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>1115970.8999999999</v>
-      </c>
-      <c r="G16">
-        <v>3000</v>
-      </c>
-      <c r="H16">
-        <v>30000</v>
-      </c>
-      <c r="I16">
-        <v>30000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>51317720437.351486</v>
-      </c>
-      <c r="M16">
-        <v>77804.523204941521</v>
-      </c>
-      <c r="N16">
-        <v>-42084569545.337952</v>
-      </c>
-      <c r="O16">
-        <v>90</v>
-      </c>
-      <c r="P16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="L19">
+        <v>56475174528.84918</v>
+      </c>
+      <c r="M19">
+        <v>95283.58993310381</v>
+      </c>
+      <c r="N19">
+        <v>-57345743756.96653</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>3000</v>
-      </c>
-      <c r="H17">
-        <v>30000</v>
-      </c>
-      <c r="I17">
-        <v>30000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>56463936041.787666</v>
-      </c>
-      <c r="M17">
-        <v>89484.827363775854</v>
-      </c>
-      <c r="N17">
-        <v>48862023532.605362</v>
-      </c>
-      <c r="O17">
-        <v>90</v>
-      </c>
-      <c r="P17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <v>1115970.8999999999</v>
-      </c>
-      <c r="G18">
-        <v>3000</v>
-      </c>
-      <c r="H18">
-        <v>30000</v>
-      </c>
-      <c r="I18">
-        <v>30000</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>50862075194.913628</v>
-      </c>
-      <c r="M18">
-        <v>74668.386587719666</v>
-      </c>
-      <c r="N18">
-        <v>-38739771787.52977</v>
-      </c>
-      <c r="O18">
-        <v>14</v>
-      </c>
-      <c r="P18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>3000</v>
-      </c>
-      <c r="H19">
-        <v>30000</v>
-      </c>
-      <c r="I19">
-        <v>30000</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>56255565551.888023</v>
-      </c>
-      <c r="M19">
-        <v>88676.193316251782</v>
-      </c>
-      <c r="N19">
-        <v>48743597648.194077</v>
-      </c>
-      <c r="O19">
-        <v>14</v>
-      </c>
-      <c r="P19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>1115970.8999999999</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>3000</v>
@@ -1478,30 +1416,30 @@
         <v>30000</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K20">
         <v>0.1</v>
       </c>
       <c r="L20">
-        <v>51439374210.355118</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M20">
-        <v>76730.263032110757</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N20">
-        <v>-40537414955.555351</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O20">
-        <v>14</v>
-      </c>
-      <c r="P20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1510,48 +1448,48 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G21">
         <v>3000</v>
       </c>
       <c r="H21">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>64155885024.786018</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M21">
-        <v>120699.21073637959</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N21">
-        <v>54863029238.693413</v>
+        <v>-57345743756.96655</v>
       </c>
       <c r="O21">
-        <v>14</v>
-      </c>
-      <c r="P21">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1560,13 +1498,13 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0.5</v>
       </c>
       <c r="F22">
-        <v>1115970.8999999999</v>
+        <v>1115970.9</v>
       </c>
       <c r="G22">
         <v>3000</v>
@@ -1578,175 +1516,1375 @@
         <v>30000</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K22">
         <v>0.1</v>
       </c>
       <c r="L22">
-        <v>55960953803.979584</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M22">
-        <v>67811.262051396116</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N22">
-        <v>-26528206881.73056</v>
+        <v>-56289721573.5535</v>
       </c>
       <c r="O22">
-        <v>90</v>
-      </c>
-      <c r="P22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>3000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>30000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>56462742577.74156</v>
+      </c>
+      <c r="M23">
+        <v>94388.67505031095</v>
+      </c>
+      <c r="N23">
+        <v>49030962314.24245</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>1115970.9</v>
+      </c>
+      <c r="G24">
+        <v>3000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>30000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>56462742577.74156</v>
+      </c>
+      <c r="M24">
+        <v>94388.67505031095</v>
+      </c>
+      <c r="N24">
+        <v>-56304052331.46062</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>3000</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>56475174528.84919</v>
+      </c>
+      <c r="M25">
+        <v>95283.58993310385</v>
+      </c>
+      <c r="N25">
+        <v>48987969855.91022</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>1115970.9</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>56475174528.84919</v>
+      </c>
+      <c r="M26">
+        <v>95283.58993310385</v>
+      </c>
+      <c r="N26">
+        <v>-57345743756.96655</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>1115970.9</v>
+      </c>
+      <c r="G27">
+        <v>3000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>30000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <v>56462742577.74156</v>
+      </c>
+      <c r="M27">
+        <v>94388.67505031095</v>
+      </c>
+      <c r="N27">
+        <v>-56304052331.46062</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>3000</v>
-      </c>
-      <c r="H23">
-        <v>30000</v>
-      </c>
-      <c r="I23">
-        <v>30000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>56475174528.84919</v>
+      </c>
+      <c r="M28">
+        <v>95283.58993310385</v>
+      </c>
+      <c r="N28">
+        <v>48987969855.91022</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>30000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29">
         <v>0.1</v>
       </c>
-      <c r="L23">
-        <v>63560382198.785263</v>
-      </c>
-      <c r="M23">
-        <v>116426.15687577501</v>
-      </c>
-      <c r="N23">
-        <v>54658593704.311142</v>
-      </c>
-      <c r="O23">
-        <v>90</v>
-      </c>
-      <c r="P23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24">
-        <v>1115970.8999999999</v>
-      </c>
-      <c r="G24">
-        <v>3000</v>
-      </c>
-      <c r="H24">
-        <v>30000</v>
-      </c>
-      <c r="I24">
-        <v>30000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>54887589655.505463</v>
-      </c>
-      <c r="M24">
-        <v>62654.785430066368</v>
-      </c>
-      <c r="N24">
-        <v>-21699762725.949451</v>
-      </c>
-      <c r="O24">
-        <v>90</v>
-      </c>
-      <c r="P24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="L29">
+        <v>56462742577.74156</v>
+      </c>
+      <c r="M29">
+        <v>94388.67505031095</v>
+      </c>
+      <c r="N29">
+        <v>49030962314.24245</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>3000</v>
-      </c>
-      <c r="H25">
-        <v>30000</v>
-      </c>
-      <c r="I25">
-        <v>30000</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>56484937497.398407</v>
-      </c>
-      <c r="M25">
-        <v>65029.095913270619</v>
-      </c>
-      <c r="N25">
-        <v>49514491330.250412</v>
-      </c>
-      <c r="O25">
-        <v>90</v>
-      </c>
-      <c r="P25">
-        <v>90</v>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>1115970.9</v>
+      </c>
+      <c r="G30">
+        <v>3000</v>
+      </c>
+      <c r="H30">
+        <v>30000</v>
+      </c>
+      <c r="I30">
+        <v>30000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>56462550823.73626</v>
+      </c>
+      <c r="M30">
+        <v>94376.22793168796</v>
+      </c>
+      <c r="N30">
+        <v>-56289721573.5535</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3000</v>
+      </c>
+      <c r="H31">
+        <v>30000</v>
+      </c>
+      <c r="I31">
+        <v>30000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>56462550823.73626</v>
+      </c>
+      <c r="M31">
+        <v>94376.22793168796</v>
+      </c>
+      <c r="N31">
+        <v>49031402449.97742</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>1115970.9</v>
+      </c>
+      <c r="G32">
+        <v>3000</v>
+      </c>
+      <c r="H32">
+        <v>30000</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>56475174528.84918</v>
+      </c>
+      <c r="M32">
+        <v>95283.58993310381</v>
+      </c>
+      <c r="N32">
+        <v>-57345743756.96653</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3000</v>
+      </c>
+      <c r="H33">
+        <v>30000</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>56475174528.84918</v>
+      </c>
+      <c r="M33">
+        <v>95283.58993310381</v>
+      </c>
+      <c r="N33">
+        <v>48987969855.91022</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>3000</v>
+      </c>
+      <c r="H34">
+        <v>30000</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>21778419792.60489</v>
+      </c>
+      <c r="M34">
+        <v>5658.515242278998</v>
+      </c>
+      <c r="N34">
+        <v>21539543387.08963</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>1115970.9</v>
+      </c>
+      <c r="G35">
+        <v>3000</v>
+      </c>
+      <c r="H35">
+        <v>30000</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>0.1</v>
+      </c>
+      <c r="L35">
+        <v>21778419792.60489</v>
+      </c>
+      <c r="M35">
+        <v>5658.515242278998</v>
+      </c>
+      <c r="N35">
+        <v>15224805039.49981</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3000</v>
+      </c>
+      <c r="H36">
+        <v>30000</v>
+      </c>
+      <c r="I36">
+        <v>30000</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+      <c r="L36">
+        <v>21796755246.90135</v>
+      </c>
+      <c r="M36">
+        <v>5611.228757990153</v>
+      </c>
+      <c r="N36">
+        <v>21560382026.05931</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>1115970.9</v>
+      </c>
+      <c r="G37">
+        <v>3000</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>21455977600.1556</v>
+      </c>
+      <c r="M37">
+        <v>5658.515242279</v>
+      </c>
+      <c r="N37">
+        <v>14902362847.05052</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>1115970.9</v>
+      </c>
+      <c r="G38">
+        <v>3000</v>
+      </c>
+      <c r="H38">
+        <v>30000</v>
+      </c>
+      <c r="I38">
+        <v>30000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+      <c r="L38">
+        <v>21796755246.90135</v>
+      </c>
+      <c r="M38">
+        <v>5611.228757990153</v>
+      </c>
+      <c r="N38">
+        <v>15298414018.89916</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>3000</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>30000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>21476861196.62046</v>
+      </c>
+      <c r="M39">
+        <v>5611.319453674336</v>
+      </c>
+      <c r="N39">
+        <v>21240484419.35757</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>1115970.9</v>
+      </c>
+      <c r="G40">
+        <v>3000</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>30000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>21476861196.62046</v>
+      </c>
+      <c r="M40">
+        <v>5611.319453674336</v>
+      </c>
+      <c r="N40">
+        <v>14978415198.45311</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3000</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>0.1</v>
+      </c>
+      <c r="L41">
+        <v>21455977600.1556</v>
+      </c>
+      <c r="M41">
+        <v>5658.515242279</v>
+      </c>
+      <c r="N41">
+        <v>21217101194.64034</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>1115970.9</v>
+      </c>
+      <c r="G42">
+        <v>3000</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="L42">
+        <v>21455977600.1556</v>
+      </c>
+      <c r="M42">
+        <v>5658.515242279</v>
+      </c>
+      <c r="N42">
+        <v>14902362847.05052</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>1115970.9</v>
+      </c>
+      <c r="G43">
+        <v>3000</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>30000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>0.1</v>
+      </c>
+      <c r="L43">
+        <v>21476861196.62046</v>
+      </c>
+      <c r="M43">
+        <v>5611.319453674336</v>
+      </c>
+      <c r="N43">
+        <v>14978415198.45311</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>3000</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>21455977600.1556</v>
+      </c>
+      <c r="M44">
+        <v>5658.515242279</v>
+      </c>
+      <c r="N44">
+        <v>21217101194.64034</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>3000</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>30000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>0.1</v>
+      </c>
+      <c r="L45">
+        <v>21476861196.62046</v>
+      </c>
+      <c r="M45">
+        <v>5611.319453674336</v>
+      </c>
+      <c r="N45">
+        <v>21240484419.35757</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>1115970.9</v>
+      </c>
+      <c r="G46">
+        <v>3000</v>
+      </c>
+      <c r="H46">
+        <v>30000</v>
+      </c>
+      <c r="I46">
+        <v>30000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>21796755246.90135</v>
+      </c>
+      <c r="M46">
+        <v>5611.228757990153</v>
+      </c>
+      <c r="N46">
+        <v>15298414018.89916</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>3000</v>
+      </c>
+      <c r="H47">
+        <v>30000</v>
+      </c>
+      <c r="I47">
+        <v>30000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>21796755246.90135</v>
+      </c>
+      <c r="M47">
+        <v>5611.228757990153</v>
+      </c>
+      <c r="N47">
+        <v>21560382026.05931</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>1115970.9</v>
+      </c>
+      <c r="G48">
+        <v>3000</v>
+      </c>
+      <c r="H48">
+        <v>30000</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>21778419792.60489</v>
+      </c>
+      <c r="M48">
+        <v>5658.515242278998</v>
+      </c>
+      <c r="N48">
+        <v>15224805039.49981</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>3000</v>
+      </c>
+      <c r="H49">
+        <v>30000</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>21778419792.60489</v>
+      </c>
+      <c r="M49">
+        <v>5658.515242278998</v>
+      </c>
+      <c r="N49">
+        <v>21539543387.08963</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
   <si>
     <t>groups</t>
   </si>
@@ -73,10 +73,31 @@
     <t>full_lockdown</t>
   </si>
   <si>
+    <t>constant_gradient</t>
+  </si>
+  <si>
+    <t>time_gradient</t>
+  </si>
+  <si>
+    <t>age_group_gradient</t>
+  </si>
+  <si>
+    <t>linearization_heuristic</t>
+  </si>
+  <si>
+    <t>linearization_heuristic_Prop_Bouncing</t>
+  </si>
+  <si>
     <t>homogeneous</t>
   </si>
   <si>
     <t>(1,)</t>
+  </si>
+  <si>
+    <t>(90.0,)</t>
+  </si>
+  <si>
+    <t>(14,)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,28 +534,28 @@
         <v>30000</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>0.1</v>
       </c>
       <c r="L2">
-        <v>41698850726.2096</v>
+        <v>41709745390.4251</v>
       </c>
       <c r="M2">
-        <v>14150.38993786064</v>
+        <v>13800.73822873106</v>
       </c>
       <c r="N2">
-        <v>40948841564.29409</v>
+        <v>40982219426.49348</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -560,31 +581,31 @@
         <v>3000</v>
       </c>
       <c r="H3">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>41698850726.2096</v>
+        <v>42710855670.93616</v>
       </c>
       <c r="M3">
         <v>14150.38993786064</v>
       </c>
       <c r="N3">
-        <v>25157418169.9888</v>
+        <v>26169423114.71537</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -604,7 +625,7 @@
         <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G4">
         <v>3000</v>
@@ -616,7 +637,7 @@
         <v>30000</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0.1</v>
@@ -628,13 +649,13 @@
         <v>13800.73822873106</v>
       </c>
       <c r="N4">
-        <v>40982219426.49348</v>
+        <v>25580997164.71208</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -654,7 +675,7 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>3000</v>
@@ -666,25 +687,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>42710855670.93616</v>
+        <v>41542231923.46268</v>
       </c>
       <c r="M5">
         <v>14150.38993786064</v>
       </c>
       <c r="N5">
-        <v>26169423114.71537</v>
+        <v>40792222761.54716</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -710,31 +731,31 @@
         <v>3000</v>
       </c>
       <c r="H6">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.1</v>
       </c>
       <c r="L6">
-        <v>41709745390.4251</v>
+        <v>41542231923.46268</v>
       </c>
       <c r="M6">
-        <v>13800.73822873106</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N6">
-        <v>25580997164.71208</v>
+        <v>25000799367.24187</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -763,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>42722019395.77868</v>
+        <v>42710855670.93616</v>
       </c>
       <c r="M7">
-        <v>13802.4446650775</v>
+        <v>14150.38993786064</v>
       </c>
       <c r="N7">
-        <v>41994424176.77325</v>
+        <v>41960846509.02068</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -810,31 +831,31 @@
         <v>3000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I8">
         <v>30000</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>42722019395.77868</v>
+        <v>42857105490.9956</v>
       </c>
       <c r="M8">
-        <v>13802.4446650775</v>
+        <v>13800.73822873106</v>
       </c>
       <c r="N8">
-        <v>26591297581.68648</v>
+        <v>26728357265.28257</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -860,31 +881,31 @@
         <v>3000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>41542231923.46268</v>
+        <v>42857105490.9956</v>
       </c>
       <c r="M9">
-        <v>14150.38993786064</v>
+        <v>13800.73822873106</v>
       </c>
       <c r="N9">
-        <v>40792222761.54716</v>
+        <v>42129579527.06398</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -898,43 +919,43 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0.1</v>
       </c>
       <c r="L10">
-        <v>41542231923.46268</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M10">
-        <v>14150.38993786064</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N10">
-        <v>25000799367.24187</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -948,7 +969,7 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -963,28 +984,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>41554935216.22261</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M11">
-        <v>13802.4446650775</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N11">
-        <v>25424213402.13041</v>
+        <v>-57345743756.96655</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -998,43 +1019,43 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G12">
         <v>3000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
-        <v>42710855670.93616</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M12">
-        <v>14150.38993786064</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N12">
-        <v>41960846509.02068</v>
+        <v>-56289721573.5535</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1048,7 +1069,7 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -1063,28 +1084,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>41554935216.22261</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M13">
-        <v>13802.4446650775</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N13">
-        <v>40827339997.21714</v>
+        <v>48987969855.91022</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1098,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0.5</v>
@@ -1110,31 +1131,31 @@
         <v>3000</v>
       </c>
       <c r="H14">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L14">
-        <v>42857105490.9956</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M14">
-        <v>13800.73822873106</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N14">
-        <v>26728357265.28257</v>
+        <v>-57345743756.96655</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1148,7 +1169,7 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0.5</v>
@@ -1160,31 +1181,31 @@
         <v>3000</v>
       </c>
       <c r="H15">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42857105490.9956</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M15">
-        <v>13800.73822873106</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N15">
-        <v>42129579527.06398</v>
+        <v>48987969855.91022</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1198,7 +1219,7 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -1213,28 +1234,28 @@
         <v>30000</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42847482376.25683</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M16">
-        <v>14150.38993786064</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N16">
-        <v>26306049820.03605</v>
+        <v>-56289721573.5535</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1248,7 +1269,7 @@
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0.5</v>
@@ -1263,28 +1284,28 @@
         <v>30000</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>42847482376.25683</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M17">
-        <v>14150.38993786064</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N17">
-        <v>42097473214.34135</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1298,7 +1319,7 @@
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -1313,28 +1334,28 @@
         <v>30000</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K18">
         <v>0.1</v>
       </c>
       <c r="L18">
-        <v>56475174528.84918</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M18">
-        <v>95283.58993310381</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N18">
-        <v>48987969855.91022</v>
+        <v>21560382026.05931</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1348,7 +1369,7 @@
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -1360,31 +1381,31 @@
         <v>3000</v>
       </c>
       <c r="H19">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>56475174528.84918</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M19">
-        <v>95283.58993310381</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N19">
-        <v>-57345743756.96653</v>
+        <v>14902362847.05052</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1398,13 +1419,13 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G20">
         <v>3000</v>
@@ -1416,25 +1437,25 @@
         <v>30000</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K20">
         <v>0.1</v>
       </c>
       <c r="L20">
-        <v>56462550823.73626</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M20">
-        <v>94376.22793168796</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N20">
-        <v>49031402449.97742</v>
+        <v>15298414018.89916</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1448,13 +1469,13 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>3000</v>
@@ -1466,25 +1487,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L21">
-        <v>56475174528.84919</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M21">
-        <v>95283.58993310385</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N21">
-        <v>-57345743756.96655</v>
+        <v>21217101194.64034</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1498,7 +1519,7 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -1510,31 +1531,31 @@
         <v>3000</v>
       </c>
       <c r="H22">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K22">
         <v>0.1</v>
       </c>
       <c r="L22">
-        <v>56462550823.73626</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M22">
-        <v>94376.22793168796</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N22">
-        <v>-56289721573.5535</v>
+        <v>14902362847.05052</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1548,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -1563,28 +1584,28 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>56462742577.74156</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M23">
-        <v>94388.67505031095</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N23">
-        <v>49030962314.24245</v>
+        <v>21217101194.64034</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1598,7 +1619,7 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1610,31 +1631,31 @@
         <v>3000</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I24">
         <v>30000</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>56462742577.74156</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M24">
-        <v>94388.67505031095</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N24">
-        <v>-56304052331.46062</v>
+        <v>15298414018.89916</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1648,7 +1669,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -1660,31 +1681,31 @@
         <v>3000</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>56475174528.84919</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M25">
-        <v>95283.58993310385</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N25">
-        <v>48987969855.91022</v>
+        <v>21560382026.05931</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1698,7 +1719,7 @@
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1710,31 +1731,31 @@
         <v>3000</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K26">
         <v>0.1</v>
       </c>
       <c r="L26">
-        <v>56475174528.84919</v>
+        <v>47301005748.67323</v>
       </c>
       <c r="M26">
-        <v>95283.58993310385</v>
+        <v>13735.39744213385</v>
       </c>
       <c r="N26">
-        <v>-57345743756.96655</v>
+        <v>31195145229.9989</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1748,7 +1769,7 @@
         <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -1763,28 +1784,28 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>56462742577.74156</v>
+        <v>47355297690.11735</v>
       </c>
       <c r="M27">
-        <v>94388.67505031095</v>
+        <v>12637.10779641862</v>
       </c>
       <c r="N27">
-        <v>-56304052331.46062</v>
+        <v>32552283443.90936</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1798,7 +1819,7 @@
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -1810,31 +1831,31 @@
         <v>3000</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L28">
-        <v>56475174528.84919</v>
+        <v>52181468627.40698</v>
       </c>
       <c r="M28">
-        <v>95283.58993310385</v>
+        <v>22225.43646835902</v>
       </c>
       <c r="N28">
-        <v>48987969855.91022</v>
+        <v>50567885678.53936</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1848,43 +1869,43 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G29">
         <v>3000</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I29">
         <v>30000</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>56462742577.74156</v>
+        <v>47146115859.98625</v>
       </c>
       <c r="M29">
-        <v>94388.67505031095</v>
+        <v>12493.97841476268</v>
       </c>
       <c r="N29">
-        <v>49030962314.24245</v>
+        <v>32511399982.5053</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1898,13 +1919,13 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0.5</v>
       </c>
       <c r="F30">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>3000</v>
@@ -1916,7 +1937,7 @@
         <v>30000</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1928,13 +1949,13 @@
         <v>94376.22793168796</v>
       </c>
       <c r="N30">
-        <v>-56289721573.5535</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1948,43 +1969,43 @@
         <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0.5</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G31">
         <v>3000</v>
       </c>
       <c r="H31">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L31">
-        <v>56462550823.73626</v>
+        <v>46775270803.21307</v>
       </c>
       <c r="M31">
-        <v>94376.22793168796</v>
+        <v>13660.44463590612</v>
       </c>
       <c r="N31">
-        <v>49031402449.97742</v>
+        <v>30760368485.88678</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1998,43 +2019,43 @@
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0.5</v>
       </c>
       <c r="F32">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>3000</v>
       </c>
       <c r="H32">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>56475174528.84918</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M32">
-        <v>95283.58993310381</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N32">
-        <v>-57345743756.96653</v>
+        <v>48987969855.91022</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2048,7 +2069,7 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -2060,31 +2081,31 @@
         <v>3000</v>
       </c>
       <c r="H33">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L33">
-        <v>56475174528.84918</v>
+        <v>52099528810.62714</v>
       </c>
       <c r="M33">
-        <v>95283.58993310381</v>
+        <v>22795.99404342322</v>
       </c>
       <c r="N33">
-        <v>48987969855.91022</v>
+        <v>50429695455.22933</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2098,13 +2119,13 @@
         <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0.5</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G34">
         <v>3000</v>
@@ -2113,28 +2134,28 @@
         <v>30000</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>21778419792.60489</v>
+        <v>51083451514.16997</v>
       </c>
       <c r="M34">
-        <v>5658.515242278998</v>
+        <v>9447.877981358377</v>
       </c>
       <c r="N34">
-        <v>21539543387.08963</v>
+        <v>40156668127.32385</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2148,13 +2169,13 @@
         <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0.5</v>
       </c>
       <c r="F35">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>3000</v>
@@ -2163,28 +2184,28 @@
         <v>30000</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K35">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>21778419792.60489</v>
+        <v>56451805668.06672</v>
       </c>
       <c r="M35">
-        <v>5658.515242278998</v>
+        <v>20360.57040805514</v>
       </c>
       <c r="N35">
-        <v>15224805039.49981</v>
+        <v>55079397728.10566</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2198,43 +2219,43 @@
         <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0.5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G36">
         <v>3000</v>
       </c>
       <c r="H36">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K36">
         <v>0.1</v>
       </c>
       <c r="L36">
-        <v>21796755246.90135</v>
+        <v>46899336759.42669</v>
       </c>
       <c r="M36">
-        <v>5611.228757990153</v>
+        <v>9591.18776065728</v>
       </c>
       <c r="N36">
-        <v>21560382026.05931</v>
+        <v>35809749280.16129</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2248,7 +2269,7 @@
         <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0.5</v>
@@ -2260,31 +2281,31 @@
         <v>3000</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L37">
-        <v>21455977600.1556</v>
+        <v>47067197188.95287</v>
       </c>
       <c r="M37">
-        <v>5658.515242279</v>
+        <v>9478.123415063883</v>
       </c>
       <c r="N37">
-        <v>14902362847.05052</v>
+        <v>36108406954.33688</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2298,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0.5</v>
@@ -2310,31 +2331,31 @@
         <v>3000</v>
       </c>
       <c r="H38">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>21796755246.90135</v>
+        <v>50939754301.43151</v>
       </c>
       <c r="M38">
-        <v>5611.228757990153</v>
+        <v>9546.658970779114</v>
       </c>
       <c r="N38">
-        <v>15298414018.89916</v>
+        <v>39897963692.21956</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2348,7 +2369,7 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0.5</v>
@@ -2360,31 +2381,31 @@
         <v>3000</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I39">
         <v>30000</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L39">
-        <v>21476861196.62046</v>
+        <v>55910003026.84904</v>
       </c>
       <c r="M39">
-        <v>5611.319453674336</v>
+        <v>65445.42118329419</v>
       </c>
       <c r="N39">
-        <v>21240484419.35757</v>
+        <v>50500258439.68742</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2398,13 +2419,13 @@
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0.5</v>
       </c>
       <c r="F40">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>3000</v>
@@ -2413,28 +2434,28 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L40">
-        <v>21476861196.62046</v>
+        <v>56037038303.32347</v>
       </c>
       <c r="M40">
-        <v>5611.319453674336</v>
+        <v>71099.50001086859</v>
       </c>
       <c r="N40">
-        <v>14978415198.45311</v>
+        <v>50181736905.64902</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2448,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0.5</v>
@@ -2466,25 +2487,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>21455977600.1556</v>
+        <v>56450921480.15781</v>
       </c>
       <c r="M41">
-        <v>5658.515242279</v>
+        <v>20876.08099897697</v>
       </c>
       <c r="N41">
-        <v>21217101194.64034</v>
+        <v>55029509141.30824</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2498,7 +2519,7 @@
         <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0.5</v>
@@ -2510,31 +2531,31 @@
         <v>3000</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K42">
         <v>0.1</v>
       </c>
       <c r="L42">
-        <v>21455977600.1556</v>
+        <v>51436930193.61773</v>
       </c>
       <c r="M42">
-        <v>5658.515242279</v>
+        <v>11287.41168423393</v>
       </c>
       <c r="N42">
-        <v>14902362847.05052</v>
+        <v>38044525612.06787</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2548,7 +2569,7 @@
         <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -2563,28 +2584,28 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>21476861196.62046</v>
+        <v>55131989005.43114</v>
       </c>
       <c r="M43">
-        <v>5611.319453674336</v>
+        <v>10809.10518433615</v>
       </c>
       <c r="N43">
-        <v>14978415198.45311</v>
+        <v>42256423224.33618</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2598,7 +2619,7 @@
         <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0.5</v>
@@ -2610,31 +2631,31 @@
         <v>3000</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L44">
-        <v>21455977600.1556</v>
+        <v>55724903144.02931</v>
       </c>
       <c r="M44">
-        <v>5658.515242279</v>
+        <v>47681.26651741291</v>
       </c>
       <c r="N44">
-        <v>21217101194.64034</v>
+        <v>51819906034.32595</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2648,43 +2669,43 @@
         <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>0.5</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G45">
         <v>3000</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I45">
         <v>30000</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K45">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>21476861196.62046</v>
+        <v>55275313354.07212</v>
       </c>
       <c r="M45">
-        <v>5611.319453674336</v>
+        <v>10680.96768362214</v>
       </c>
       <c r="N45">
-        <v>21240484419.35757</v>
+        <v>42553843247.17003</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2698,13 +2719,13 @@
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0.5</v>
       </c>
       <c r="F46">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>3000</v>
@@ -2716,25 +2737,25 @@
         <v>30000</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>21796755246.90135</v>
+        <v>56677369457.75938</v>
       </c>
       <c r="M46">
-        <v>5611.228757990153</v>
+        <v>12209.63558034067</v>
       </c>
       <c r="N46">
-        <v>15298414018.89916</v>
+        <v>55685603160.36066</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2748,43 +2769,43 @@
         <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0.5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G47">
         <v>3000</v>
       </c>
       <c r="H47">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L47">
-        <v>21796755246.90135</v>
+        <v>51256842798.2814</v>
       </c>
       <c r="M47">
-        <v>5611.228757990153</v>
+        <v>11424.42234296198</v>
       </c>
       <c r="N47">
-        <v>21560382026.05931</v>
+        <v>37697887364.83922</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2798,43 +2819,43 @@
         <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0.5</v>
       </c>
       <c r="F48">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>3000</v>
       </c>
       <c r="H48">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>21778419792.60489</v>
+        <v>56681203189.4487</v>
       </c>
       <c r="M48">
-        <v>5658.515242278998</v>
+        <v>12498.93330460857</v>
       </c>
       <c r="N48">
-        <v>15224805039.49981</v>
+        <v>55655867972.08572</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P48" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2848,7 +2869,7 @@
         <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -2860,31 +2881,1031 @@
         <v>3000</v>
       </c>
       <c r="H49">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L49">
-        <v>21778419792.60489</v>
+        <v>55970435512.69156</v>
       </c>
       <c r="M49">
-        <v>5658.515242278998</v>
+        <v>58264.05529590042</v>
       </c>
       <c r="N49">
-        <v>21539543387.08963</v>
+        <v>51212371540.50982</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>1115970.9</v>
+      </c>
+      <c r="G50">
+        <v>3000</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>55738139841.46416</v>
+      </c>
+      <c r="M50">
+        <v>10177.14607948956</v>
+      </c>
+      <c r="N50">
+        <v>43678913373.93842</v>
+      </c>
+      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="P50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>1115970.9</v>
+      </c>
+      <c r="G51">
+        <v>3000</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>55734169222.36889</v>
+      </c>
+      <c r="M51">
+        <v>10007.33768147751</v>
+      </c>
+      <c r="N51">
+        <v>43894103002.85053</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>1115970.9</v>
+      </c>
+      <c r="G52">
+        <v>3000</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52">
+        <v>0.1</v>
+      </c>
+      <c r="L52">
+        <v>52827252753.59023</v>
+      </c>
+      <c r="M52">
+        <v>11622.68722498571</v>
+      </c>
+      <c r="N52">
+        <v>39127980031.1486</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>1115970.9</v>
+      </c>
+      <c r="G53">
+        <v>3000</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>0.1</v>
+      </c>
+      <c r="L53">
+        <v>52646018291.06516</v>
+      </c>
+      <c r="M53">
+        <v>11305.87489581958</v>
+      </c>
+      <c r="N53">
+        <v>39364170448.87606</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>1115970.9</v>
+      </c>
+      <c r="G54">
+        <v>3000</v>
+      </c>
+      <c r="H54">
+        <v>30000</v>
+      </c>
+      <c r="I54">
+        <v>30000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>0.1</v>
+      </c>
+      <c r="L54">
+        <v>52705448649.06591</v>
+      </c>
+      <c r="M54">
+        <v>10713.76808913872</v>
+      </c>
+      <c r="N54">
+        <v>40107641323.5396</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3000</v>
+      </c>
+      <c r="H55">
+        <v>30000</v>
+      </c>
+      <c r="I55">
+        <v>30000</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <v>0.1</v>
+      </c>
+      <c r="L55">
+        <v>56489219641.55998</v>
+      </c>
+      <c r="M55">
+        <v>82591.51436385387</v>
+      </c>
+      <c r="N55">
+        <v>49419158491.21915</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>1115970.9</v>
+      </c>
+      <c r="G56">
+        <v>3000</v>
+      </c>
+      <c r="H56">
+        <v>30000</v>
+      </c>
+      <c r="I56">
+        <v>30000</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <v>0.1</v>
+      </c>
+      <c r="L56">
+        <v>52920226756.04203</v>
+      </c>
+      <c r="M56">
+        <v>11213.49945070745</v>
+      </c>
+      <c r="N56">
+        <v>39708042072.56889</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>3000</v>
+      </c>
+      <c r="H57">
+        <v>30000</v>
+      </c>
+      <c r="I57">
+        <v>30000</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>56680079681.56863</v>
+      </c>
+      <c r="M57">
+        <v>12080.46240998385</v>
+      </c>
+      <c r="N57">
+        <v>55702319150.28203</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>1115970.9</v>
+      </c>
+      <c r="G58">
+        <v>3000</v>
+      </c>
+      <c r="H58">
+        <v>30000</v>
+      </c>
+      <c r="I58">
+        <v>30000</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>55848690720.39031</v>
+      </c>
+      <c r="M58">
+        <v>9884.853172690518</v>
+      </c>
+      <c r="N58">
+        <v>44142441480.69099</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>1115970.9</v>
+      </c>
+      <c r="G59">
+        <v>3000</v>
+      </c>
+      <c r="H59">
+        <v>30000</v>
+      </c>
+      <c r="I59">
+        <v>30000</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>55762845584.54617</v>
+      </c>
+      <c r="M59">
+        <v>9645.637034630709</v>
+      </c>
+      <c r="N59">
+        <v>44360104247.05219</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>1115970.9</v>
+      </c>
+      <c r="G60">
+        <v>3000</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60">
+        <v>0.1</v>
+      </c>
+      <c r="L60">
+        <v>52646018291.06516</v>
+      </c>
+      <c r="M60">
+        <v>11305.87489581958</v>
+      </c>
+      <c r="N60">
+        <v>39364170448.87606</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>1115970.9</v>
+      </c>
+      <c r="G61">
+        <v>3000</v>
+      </c>
+      <c r="H61">
+        <v>30000</v>
+      </c>
+      <c r="I61">
+        <v>30000</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>0.1</v>
+      </c>
+      <c r="L61">
+        <v>52920226756.04203</v>
+      </c>
+      <c r="M61">
+        <v>11213.49945070745</v>
+      </c>
+      <c r="N61">
+        <v>39708042072.56889</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>1115970.9</v>
+      </c>
+      <c r="G62">
+        <v>3000</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62">
+        <v>0.1</v>
+      </c>
+      <c r="L62">
+        <v>52827252753.59023</v>
+      </c>
+      <c r="M62">
+        <v>11622.68722498571</v>
+      </c>
+      <c r="N62">
+        <v>39127980031.1486</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>1115970.9</v>
+      </c>
+      <c r="G63">
+        <v>3000</v>
+      </c>
+      <c r="H63">
+        <v>30000</v>
+      </c>
+      <c r="I63">
+        <v>30000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>55762845584.54617</v>
+      </c>
+      <c r="M63">
+        <v>9645.637034630709</v>
+      </c>
+      <c r="N63">
+        <v>44360104247.05219</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>1115970.9</v>
+      </c>
+      <c r="G64">
+        <v>3000</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>55734169222.36889</v>
+      </c>
+      <c r="M64">
+        <v>10007.33768147751</v>
+      </c>
+      <c r="N64">
+        <v>43894103002.85053</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>0.5</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3000</v>
+      </c>
+      <c r="H65">
+        <v>30000</v>
+      </c>
+      <c r="I65">
+        <v>30000</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>56680079681.56863</v>
+      </c>
+      <c r="M65">
+        <v>12080.46240998385</v>
+      </c>
+      <c r="N65">
+        <v>55702319150.28203</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <v>1115970.9</v>
+      </c>
+      <c r="G66">
+        <v>3000</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>55738139841.46416</v>
+      </c>
+      <c r="M66">
+        <v>10177.14607948956</v>
+      </c>
+      <c r="N66">
+        <v>43678913373.93842</v>
+      </c>
+      <c r="O66">
+        <v>7</v>
+      </c>
+      <c r="P66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>90</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>0.5</v>
+      </c>
+      <c r="F67">
+        <v>1115970.9</v>
+      </c>
+      <c r="G67">
+        <v>3000</v>
+      </c>
+      <c r="H67">
+        <v>30000</v>
+      </c>
+      <c r="I67">
+        <v>30000</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67">
+        <v>0.1</v>
+      </c>
+      <c r="L67">
+        <v>52705448649.06591</v>
+      </c>
+      <c r="M67">
+        <v>10713.76808913872</v>
+      </c>
+      <c r="N67">
+        <v>40107641323.5396</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>90</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>0.5</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>3000</v>
+      </c>
+      <c r="H68">
+        <v>30000</v>
+      </c>
+      <c r="I68">
+        <v>30000</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68">
+        <v>0.1</v>
+      </c>
+      <c r="L68">
+        <v>56489219641.55998</v>
+      </c>
+      <c r="M68">
+        <v>82591.51436385387</v>
+      </c>
+      <c r="N68">
+        <v>49419158491.21915</v>
+      </c>
+      <c r="O68">
+        <v>7</v>
+      </c>
+      <c r="P68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>1115970.9</v>
+      </c>
+      <c r="G69">
+        <v>3000</v>
+      </c>
+      <c r="H69">
+        <v>30000</v>
+      </c>
+      <c r="I69">
+        <v>30000</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>55848690720.39031</v>
+      </c>
+      <c r="M69">
+        <v>9884.853172690518</v>
+      </c>
+      <c r="N69">
+        <v>44142441480.69099</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -3359,13 +3359,13 @@
         <v>90</v>
       </c>
       <c r="C51" t="n">
-        <v>82591.19571197024</v>
+        <v>82591.17794350121</v>
       </c>
       <c r="D51" t="n">
         <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>56489210082.04608</v>
+        <v>56489203959.33644</v>
       </c>
       <c r="F51" t="n">
         <v>0.1</v>
@@ -3393,7 +3393,7 @@
         <v>30000</v>
       </c>
       <c r="M51" t="n">
-        <v>49419257623.66774</v>
+        <v>49419304380.07069</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
@@ -3919,13 +3919,13 @@
         <v>90</v>
       </c>
       <c r="C61" t="n">
-        <v>82595.21688548254</v>
+        <v>82590.72494480516</v>
       </c>
       <c r="D61" t="n">
         <v>0.5</v>
       </c>
       <c r="E61" t="n">
-        <v>56489148440.92464</v>
+        <v>56489073259.33029</v>
       </c>
       <c r="F61" t="n">
         <v>0.1</v>
@@ -3953,7 +3953,7 @@
         <v>30000</v>
       </c>
       <c r="M61" t="n">
-        <v>49419415728.25882</v>
+        <v>49420324756.54823</v>
       </c>
       <c r="N61" t="n">
         <v>7</v>
@@ -4199,13 +4199,13 @@
         <v>90</v>
       </c>
       <c r="C66" t="n">
-        <v>82591.19571197024</v>
+        <v>82591.17794350121</v>
       </c>
       <c r="D66" t="n">
         <v>0.5</v>
       </c>
       <c r="E66" t="n">
-        <v>56489210082.04608</v>
+        <v>56489203959.33644</v>
       </c>
       <c r="F66" t="n">
         <v>0.1</v>
@@ -4233,7 +4233,7 @@
         <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>49419257623.66774</v>
+        <v>49419304380.07069</v>
       </c>
       <c r="N66" t="n">
         <v>1</v>
@@ -4871,13 +4871,13 @@
         <v>90</v>
       </c>
       <c r="C78" t="n">
-        <v>82595.21688548254</v>
+        <v>82590.72494480516</v>
       </c>
       <c r="D78" t="n">
         <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>56489148440.92464</v>
+        <v>56489073259.33029</v>
       </c>
       <c r="F78" t="n">
         <v>0.1</v>
@@ -4905,7 +4905,7 @@
         <v>30000</v>
       </c>
       <c r="M78" t="n">
-        <v>49419415728.25882</v>
+        <v>49420324756.54823</v>
       </c>
       <c r="N78" t="n">
         <v>7</v>

--- a/benchmarks/results/results.xlsx
+++ b/benchmarks/results/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>groups</t>
   </si>
@@ -64,6 +64,9 @@
     <t>all</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>real</t>
   </si>
   <si>
@@ -82,10 +85,7 @@
     <t>age_group_gradient</t>
   </si>
   <si>
-    <t>linearization_heuristic</t>
-  </si>
-  <si>
-    <t>linearization_heuristic_Prop_Bouncing</t>
+    <t>dynamic_gradient</t>
   </si>
   <si>
     <t>homogeneous</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +519,7 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -569,7 +569,7 @@
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -619,7 +619,7 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -669,7 +669,7 @@
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -719,7 +719,7 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -769,7 +769,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -819,7 +819,7 @@
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -869,7 +869,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>90</v>
@@ -925,16 +925,16 @@
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G10">
         <v>3000</v>
       </c>
       <c r="H10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -943,13 +943,13 @@
         <v>0.1</v>
       </c>
       <c r="L10">
-        <v>56462550823.73626</v>
+        <v>41414620811.8373</v>
       </c>
       <c r="M10">
-        <v>94376.22793168796</v>
+        <v>9913.867972627268</v>
       </c>
       <c r="N10">
-        <v>49031402449.97742</v>
+        <v>27080067346.56736</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -969,37 +969,37 @@
         <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>3000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
-        <v>56475174528.84919</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M11">
-        <v>95283.58993310385</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N11">
-        <v>-57345743756.96655</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -1031,25 +1031,25 @@
         <v>3000</v>
       </c>
       <c r="H12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>56462550823.73626</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M12">
-        <v>94376.22793168796</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N12">
-        <v>-56289721573.5535</v>
+        <v>-57345743756.96655</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1069,22 +1069,22 @@
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G13">
         <v>3000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -1093,13 +1093,13 @@
         <v>0.1</v>
       </c>
       <c r="L13">
-        <v>56475174528.84919</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M13">
-        <v>95283.58993310385</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N13">
-        <v>48987969855.91022</v>
+        <v>-56289721573.5535</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1119,13 +1119,13 @@
         <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0.5</v>
       </c>
       <c r="F14">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>3000</v>
@@ -1149,7 +1149,7 @@
         <v>95283.58993310385</v>
       </c>
       <c r="N14">
-        <v>-57345743756.96655</v>
+        <v>48987969855.91022</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1169,13 +1169,13 @@
         <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G15">
         <v>3000</v>
@@ -1190,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L15">
         <v>56475174528.84919</v>
@@ -1199,7 +1199,7 @@
         <v>95283.58993310385</v>
       </c>
       <c r="N15">
-        <v>48987969855.91022</v>
+        <v>-57345743756.96655</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1219,22 +1219,22 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>3000</v>
       </c>
       <c r="H16">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -1243,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>56462550823.73626</v>
+        <v>56475174528.84919</v>
       </c>
       <c r="M16">
-        <v>94376.22793168796</v>
+        <v>95283.58993310385</v>
       </c>
       <c r="N16">
-        <v>-56289721573.5535</v>
+        <v>48987969855.91022</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1269,13 +1269,13 @@
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G17">
         <v>3000</v>
@@ -1299,7 +1299,7 @@
         <v>94376.22793168796</v>
       </c>
       <c r="N17">
-        <v>49031402449.97742</v>
+        <v>-56289721573.5535</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1340,16 +1340,16 @@
         <v>24</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>21796755246.90135</v>
+        <v>56462550823.73626</v>
       </c>
       <c r="M18">
-        <v>5611.228757990153</v>
+        <v>94376.22793168796</v>
       </c>
       <c r="N18">
-        <v>21560382026.05931</v>
+        <v>49031402449.97742</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -1390,16 +1390,16 @@
         <v>24</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
-        <v>21455977600.1556</v>
+        <v>56332879094.33937</v>
       </c>
       <c r="M19">
-        <v>5658.515242279</v>
+        <v>72521.30396126052</v>
       </c>
       <c r="N19">
-        <v>14902362847.05052</v>
+        <v>-48526345566.91967</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1419,13 +1419,13 @@
         <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>3000</v>
@@ -1449,7 +1449,7 @@
         <v>5611.228757990153</v>
       </c>
       <c r="N20">
-        <v>15298414018.89916</v>
+        <v>21560382026.05931</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1469,13 +1469,13 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G21">
         <v>3000</v>
@@ -1490,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="K21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>21455977600.1556</v>
@@ -1499,7 +1499,7 @@
         <v>5658.515242279</v>
       </c>
       <c r="N21">
-        <v>21217101194.64034</v>
+        <v>14902362847.05052</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -1531,10 +1531,10 @@
         <v>3000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
@@ -1543,13 +1543,13 @@
         <v>0.1</v>
       </c>
       <c r="L22">
-        <v>21455977600.1556</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M22">
-        <v>5658.515242279</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N22">
-        <v>14902362847.05052</v>
+        <v>15298414018.89916</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -1590,7 +1590,7 @@
         <v>24</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L23">
         <v>21455977600.1556</v>
@@ -1619,7 +1619,7 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1631,25 +1631,25 @@
         <v>3000</v>
       </c>
       <c r="H24">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L24">
-        <v>21796755246.90135</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M24">
-        <v>5611.228757990153</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N24">
-        <v>15298414018.89916</v>
+        <v>14902362847.05052</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -1681,10 +1681,10 @@
         <v>3000</v>
       </c>
       <c r="H25">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
@@ -1693,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21796755246.90135</v>
+        <v>21455977600.1556</v>
       </c>
       <c r="M25">
-        <v>5611.228757990153</v>
+        <v>5658.515242279</v>
       </c>
       <c r="N25">
-        <v>21560382026.05931</v>
+        <v>21217101194.64034</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         <v>24</v>
       </c>
       <c r="K26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>47301005748.67323</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M26">
-        <v>13735.39744213385</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N26">
-        <v>31195145229.9989</v>
+        <v>15298414018.89916</v>
       </c>
       <c r="O26">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1775,16 +1775,16 @@
         <v>0.5</v>
       </c>
       <c r="F27">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>3000</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
@@ -1793,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>47355297690.11735</v>
+        <v>21796755246.90135</v>
       </c>
       <c r="M27">
-        <v>12637.10779641862</v>
+        <v>5611.228757990153</v>
       </c>
       <c r="N27">
-        <v>32552283443.90936</v>
+        <v>21560382026.05931</v>
       </c>
       <c r="O27">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1813,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>90</v>
@@ -1825,16 +1825,16 @@
         <v>0.5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G28">
         <v>3000</v>
       </c>
       <c r="H28">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
@@ -1843,19 +1843,19 @@
         <v>0.1</v>
       </c>
       <c r="L28">
-        <v>52181468627.40698</v>
+        <v>21134059732.70642</v>
       </c>
       <c r="M28">
-        <v>22225.43646835902</v>
+        <v>4143.380814631297</v>
       </c>
       <c r="N28">
-        <v>50567885678.53936</v>
+        <v>15143107061.32781</v>
       </c>
       <c r="O28">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1869,7 +1869,7 @@
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -1890,16 +1890,16 @@
         <v>24</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L29">
-        <v>47146115859.98625</v>
+        <v>47301005748.67323</v>
       </c>
       <c r="M29">
-        <v>12493.97841476268</v>
+        <v>13735.39744213385</v>
       </c>
       <c r="N29">
-        <v>32511399982.5053</v>
+        <v>31195145229.9989</v>
       </c>
       <c r="O29">
         <v>90</v>
@@ -1919,22 +1919,22 @@
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0.5</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G30">
         <v>3000</v>
       </c>
       <c r="H30">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -1943,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>56462550823.73626</v>
+        <v>48092312825.8935</v>
       </c>
       <c r="M30">
-        <v>94376.22793168796</v>
+        <v>11773.19172375428</v>
       </c>
       <c r="N30">
-        <v>49031402449.97742</v>
+        <v>34323508584.26403</v>
       </c>
       <c r="O30">
         <v>90</v>
@@ -1969,22 +1969,22 @@
         <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0.5</v>
       </c>
       <c r="F31">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>3000</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
@@ -1993,13 +1993,13 @@
         <v>0.1</v>
       </c>
       <c r="L31">
-        <v>46775270803.21307</v>
+        <v>52181468627.40698</v>
       </c>
       <c r="M31">
-        <v>13660.44463590612</v>
+        <v>22225.43646835902</v>
       </c>
       <c r="N31">
-        <v>30760368485.88678</v>
+        <v>50567885678.53936</v>
       </c>
       <c r="O31">
         <v>90</v>
@@ -2013,19 +2013,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G32">
         <v>3000</v>
@@ -2040,16 +2040,16 @@
         <v>24</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L32">
-        <v>56475174528.84919</v>
+        <v>48457323446.30927</v>
       </c>
       <c r="M32">
-        <v>95283.58993310385</v>
+        <v>10610.07256430411</v>
       </c>
       <c r="N32">
-        <v>48987969855.91022</v>
+        <v>33116121317.80184</v>
       </c>
       <c r="O32">
         <v>90</v>
@@ -2069,37 +2069,37 @@
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0.5</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G33">
         <v>3000</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
       <c r="K33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>52099528810.62714</v>
+        <v>48449456250.5572</v>
       </c>
       <c r="M33">
-        <v>22795.99404342322</v>
+        <v>11701.66417670738</v>
       </c>
       <c r="N33">
-        <v>50429695455.22933</v>
+        <v>34764612379.71278</v>
       </c>
       <c r="O33">
         <v>90</v>
@@ -2125,7 +2125,7 @@
         <v>0.5</v>
       </c>
       <c r="F34">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>3000</v>
@@ -2143,19 +2143,19 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>51083451514.16997</v>
+        <v>56637528443.93237</v>
       </c>
       <c r="M34">
-        <v>9447.877981358377</v>
+        <v>28491.43610230531</v>
       </c>
       <c r="N34">
-        <v>40156668127.32385</v>
+        <v>54382400422.21636</v>
       </c>
       <c r="O34">
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2175,37 +2175,37 @@
         <v>0.5</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G35">
         <v>3000</v>
       </c>
       <c r="H35">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>24</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L35">
-        <v>56451805668.06672</v>
+        <v>46775270803.21307</v>
       </c>
       <c r="M35">
-        <v>20360.57040805514</v>
+        <v>13660.44463590612</v>
       </c>
       <c r="N35">
-        <v>55079397728.10566</v>
+        <v>30760368485.88678</v>
       </c>
       <c r="O35">
         <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2225,7 +2225,7 @@
         <v>0.5</v>
       </c>
       <c r="F36">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>3000</v>
@@ -2240,22 +2240,22 @@
         <v>24</v>
       </c>
       <c r="K36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>46899336759.42669</v>
+        <v>56640247475.13876</v>
       </c>
       <c r="M36">
-        <v>9591.18776065728</v>
+        <v>30161.8369350493</v>
       </c>
       <c r="N36">
-        <v>35809749280.16129</v>
+        <v>54220257471.21135</v>
       </c>
       <c r="O36">
         <v>90</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2275,16 +2275,16 @@
         <v>0.5</v>
       </c>
       <c r="F37">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>3000</v>
       </c>
       <c r="H37">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>24</v>
@@ -2293,19 +2293,19 @@
         <v>0.1</v>
       </c>
       <c r="L37">
-        <v>47067197188.95287</v>
+        <v>52099528810.62714</v>
       </c>
       <c r="M37">
-        <v>9478.123415063883</v>
+        <v>22795.99404342322</v>
       </c>
       <c r="N37">
-        <v>36108406954.33688</v>
+        <v>50429695455.22933</v>
       </c>
       <c r="O37">
         <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2319,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0.5</v>
@@ -2331,10 +2331,10 @@
         <v>3000</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J38" t="s">
         <v>24</v>
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>50939754301.43151</v>
+        <v>51023268665.6702</v>
       </c>
       <c r="M38">
-        <v>9546.658970779114</v>
+        <v>9398.144820928863</v>
       </c>
       <c r="N38">
-        <v>39897963692.21956</v>
+        <v>40153653486.61711</v>
       </c>
       <c r="O38">
         <v>90</v>
@@ -2363,28 +2363,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0.5</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G39">
         <v>3000</v>
       </c>
       <c r="H39">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>24</v>
@@ -2393,13 +2393,13 @@
         <v>0.1</v>
       </c>
       <c r="L39">
-        <v>55910003026.84904</v>
+        <v>48758577644.1052</v>
       </c>
       <c r="M39">
-        <v>65445.42118329419</v>
+        <v>6738.091067239383</v>
       </c>
       <c r="N39">
-        <v>50500258439.68742</v>
+        <v>39015909401.61053</v>
       </c>
       <c r="O39">
         <v>90</v>
@@ -2419,7 +2419,7 @@
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0.5</v>
@@ -2431,25 +2431,25 @@
         <v>3000</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J40" t="s">
         <v>24</v>
       </c>
       <c r="K40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>56037038303.32347</v>
+        <v>56473757555.34231</v>
       </c>
       <c r="M40">
-        <v>71099.50001086859</v>
+        <v>20526.67018860569</v>
       </c>
       <c r="N40">
-        <v>50181736905.64902</v>
+        <v>55080043516.63947</v>
       </c>
       <c r="O40">
         <v>90</v>
@@ -2469,13 +2469,13 @@
         <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0.5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G41">
         <v>3000</v>
@@ -2490,16 +2490,16 @@
         <v>24</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L41">
-        <v>56450921480.15781</v>
+        <v>46860683585.44457</v>
       </c>
       <c r="M41">
-        <v>20876.08099897697</v>
+        <v>9031.602647866344</v>
       </c>
       <c r="N41">
-        <v>55029509141.30824</v>
+        <v>36414917551.7122</v>
       </c>
       <c r="O41">
         <v>90</v>
@@ -2543,19 +2543,19 @@
         <v>0.1</v>
       </c>
       <c r="L42">
-        <v>51436930193.61773</v>
+        <v>47095994103.48869</v>
       </c>
       <c r="M42">
-        <v>11287.41168423393</v>
+        <v>8979.616190679844</v>
       </c>
       <c r="N42">
-        <v>38044525612.06787</v>
+        <v>36710378693.73187</v>
       </c>
       <c r="O42">
         <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2593,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>55131989005.43114</v>
+        <v>50867081540.9646</v>
       </c>
       <c r="M43">
-        <v>10809.10518433615</v>
+        <v>9489.103322676619</v>
       </c>
       <c r="N43">
-        <v>42256423224.33618</v>
+        <v>39892134769.87538</v>
       </c>
       <c r="O43">
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2643,19 +2643,19 @@
         <v>0.1</v>
       </c>
       <c r="L44">
-        <v>55724903144.02931</v>
+        <v>54157617324.76347</v>
       </c>
       <c r="M44">
-        <v>47681.26651741291</v>
+        <v>27397.14866991606</v>
       </c>
       <c r="N44">
-        <v>51819906034.32595</v>
+        <v>52126689118.77073</v>
       </c>
       <c r="O44">
         <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2675,37 +2675,37 @@
         <v>0.5</v>
       </c>
       <c r="F45">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>3000</v>
       </c>
       <c r="H45">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L45">
-        <v>55275313354.07212</v>
+        <v>54131227755.77523</v>
       </c>
       <c r="M45">
-        <v>10680.96768362214</v>
+        <v>28188.43861123481</v>
       </c>
       <c r="N45">
-        <v>42553843247.17003</v>
+        <v>52015326718.35682</v>
       </c>
       <c r="O45">
         <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2731,10 +2731,10 @@
         <v>3000</v>
       </c>
       <c r="H46">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>24</v>
@@ -2743,19 +2743,19 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>56677369457.75938</v>
+        <v>56473245523.91417</v>
       </c>
       <c r="M46">
-        <v>12209.63558034067</v>
+        <v>21044.93377462234</v>
       </c>
       <c r="N46">
-        <v>55685603160.36066</v>
+        <v>55030147304.33822</v>
       </c>
       <c r="O46">
         <v>90</v>
       </c>
       <c r="P46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2769,7 +2769,7 @@
         <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>0.5</v>
@@ -2781,10 +2781,10 @@
         <v>3000</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J47" t="s">
         <v>24</v>
@@ -2793,13 +2793,13 @@
         <v>0.1</v>
       </c>
       <c r="L47">
-        <v>51256842798.2814</v>
+        <v>51286898384.79878</v>
       </c>
       <c r="M47">
-        <v>11424.42234296198</v>
+        <v>10427.05613454904</v>
       </c>
       <c r="N47">
-        <v>37697887364.83922</v>
+        <v>38890240299.99506</v>
       </c>
       <c r="O47">
         <v>90</v>
@@ -2819,13 +2819,13 @@
         <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0.5</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1115970.9</v>
       </c>
       <c r="G48">
         <v>3000</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>56681203189.4487</v>
+        <v>55062266986.36284</v>
       </c>
       <c r="M48">
-        <v>12498.93330460857</v>
+        <v>10755.13617172951</v>
       </c>
       <c r="N48">
-        <v>55655867972.08572</v>
+        <v>42253747037.3076</v>
       </c>
       <c r="O48">
         <v>90</v>
@@ -2869,7 +2869,7 @@
         <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -2881,10 +2881,10 @@
         <v>3000</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J49" t="s">
         <v>24</v>
@@ -2893,13 +2893,13 @@
         <v>0.1</v>
       </c>
       <c r="L49">
-        <v>55970435512.69156</v>
+        <v>54811534332.09778</v>
       </c>
       <c r="M49">
-        <v>58264.05529590042</v>
+        <v>20365.66148242068</v>
       </c>
       <c r="N49">
-        <v>51212371540.50982</v>
+        <v>53101581743.76147</v>
       </c>
       <c r="O49">
         <v>90</v>
@@ -2913,7 +2913,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -2937,25 +2937,25 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L50">
-        <v>55738139841.46416</v>
+        <v>48457323446.30927</v>
       </c>
       <c r="M50">
-        <v>10177.14607948956</v>
+        <v>10610.07256430411</v>
       </c>
       <c r="N50">
-        <v>43678913373.93842</v>
+        <v>33116121317.80184</v>
       </c>
       <c r="O50">
-        <v>7</v>
-      </c>
-      <c r="P50">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P50" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2981,31 +2981,31 @@
         <v>3000</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>55734169222.36889</v>
+        <v>55172997470.12593</v>
       </c>
       <c r="M51">
-        <v>10007.33768147751</v>
+        <v>10600.58539324666</v>
       </c>
       <c r="N51">
-        <v>43894103002.85053</v>
+        <v>42551466276.19875</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3025,37 +3025,37 @@
         <v>0.5</v>
       </c>
       <c r="F52">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>3000</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>52827252753.59023</v>
+        <v>56677369457.75938</v>
       </c>
       <c r="M52">
-        <v>11622.68722498571</v>
+        <v>12209.63558034067</v>
       </c>
       <c r="N52">
-        <v>39127980031.1486</v>
+        <v>55685603160.36066</v>
       </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P52" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3087,25 +3087,25 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K53">
         <v>0.1</v>
       </c>
       <c r="L53">
-        <v>52646018291.06516</v>
+        <v>50986374726.25643</v>
       </c>
       <c r="M53">
-        <v>11305.87489581958</v>
+        <v>10560.72698549706</v>
       </c>
       <c r="N53">
-        <v>39364170448.87606</v>
+        <v>38428171411.17258</v>
       </c>
       <c r="O53">
-        <v>7</v>
-      </c>
-      <c r="P53">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3125,37 +3125,37 @@
         <v>0.5</v>
       </c>
       <c r="F54">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>3000</v>
       </c>
       <c r="H54">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K54">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>52705448649.06591</v>
+        <v>56681203189.4487</v>
       </c>
       <c r="M54">
-        <v>10713.76808913872</v>
+        <v>12498.93330460857</v>
       </c>
       <c r="N54">
-        <v>40107641323.5396</v>
+        <v>55655867972.08572</v>
       </c>
       <c r="O54">
-        <v>7</v>
-      </c>
-      <c r="P54">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P54" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3181,31 +3181,31 @@
         <v>3000</v>
       </c>
       <c r="H55">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K55">
         <v>0.1</v>
       </c>
       <c r="L55">
-        <v>56489219641.55998</v>
+        <v>54777970979.38737</v>
       </c>
       <c r="M55">
-        <v>82591.51436385387</v>
+        <v>20941.75709589579</v>
       </c>
       <c r="N55">
-        <v>49419158491.21915</v>
+        <v>53002034702.37319</v>
       </c>
       <c r="O55">
-        <v>7</v>
-      </c>
-      <c r="P55">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3219,7 +3219,7 @@
         <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0.5</v>
@@ -3237,25 +3237,25 @@
         <v>30000</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>52920226756.04203</v>
+        <v>54523795063.09087</v>
       </c>
       <c r="M56">
-        <v>11213.49945070745</v>
+        <v>8490.278668892748</v>
       </c>
       <c r="N56">
-        <v>39708042072.56889</v>
+        <v>44563532109.69955</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P56" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3269,7 +3269,7 @@
         <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0.5</v>
@@ -3287,25 +3287,25 @@
         <v>30000</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>56680079681.56863</v>
+        <v>56677369457.75938</v>
       </c>
       <c r="M57">
-        <v>12080.46240998385</v>
+        <v>12209.63558034067</v>
       </c>
       <c r="N57">
-        <v>55702319150.28203</v>
+        <v>55685603160.36066</v>
       </c>
       <c r="O57">
-        <v>7</v>
-      </c>
-      <c r="P57">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3319,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>0.5</v>
@@ -3331,31 +3331,31 @@
         <v>3000</v>
       </c>
       <c r="H58">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L58">
-        <v>55848690720.39031</v>
+        <v>51280629630.61442</v>
       </c>
       <c r="M58">
-        <v>9884.853172690518</v>
+        <v>8477.172939937234</v>
       </c>
       <c r="N58">
-        <v>44142441480.69099</v>
+        <v>41369375670.9753</v>
       </c>
       <c r="O58">
-        <v>7</v>
-      </c>
-      <c r="P58">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P58" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3369,7 +3369,7 @@
         <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0.5</v>
@@ -3387,25 +3387,25 @@
         <v>30000</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L59">
-        <v>55762845584.54617</v>
+        <v>51388707504.26549</v>
       </c>
       <c r="M59">
-        <v>9645.637034630709</v>
+        <v>8382.226737591214</v>
       </c>
       <c r="N59">
-        <v>44360104247.05219</v>
+        <v>41591681593.94836</v>
       </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3437,25 +3437,25 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>52646018291.06516</v>
+        <v>54363458465.86078</v>
       </c>
       <c r="M60">
-        <v>11305.87489581958</v>
+        <v>8516.855731962227</v>
       </c>
       <c r="N60">
-        <v>39364170448.87606</v>
+        <v>44376173443.77625</v>
       </c>
       <c r="O60">
-        <v>7</v>
-      </c>
-      <c r="P60">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P60" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3475,7 +3475,7 @@
         <v>0.5</v>
       </c>
       <c r="F61">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>3000</v>
@@ -3487,25 +3487,25 @@
         <v>30000</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K61">
         <v>0.1</v>
       </c>
       <c r="L61">
-        <v>52920226756.04203</v>
+        <v>54929816190.81905</v>
       </c>
       <c r="M61">
-        <v>11213.49945070745</v>
+        <v>17495.16623469626</v>
       </c>
       <c r="N61">
-        <v>39708042072.56889</v>
+        <v>53639499154.65259</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P61" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3525,7 +3525,7 @@
         <v>0.5</v>
       </c>
       <c r="F62">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>3000</v>
@@ -3537,25 +3537,25 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K62">
         <v>0.1</v>
       </c>
       <c r="L62">
-        <v>52827252753.59023</v>
+        <v>54877744872.22618</v>
       </c>
       <c r="M62">
-        <v>11622.68722498571</v>
+        <v>17772.25193632764</v>
       </c>
       <c r="N62">
-        <v>39127980031.1486</v>
+        <v>53548526098.29176</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3575,337 +3575,37 @@
         <v>0.5</v>
       </c>
       <c r="F63">
-        <v>1115970.9</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>3000</v>
       </c>
       <c r="H63">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>55762845584.54617</v>
+        <v>56681203189.4487</v>
       </c>
       <c r="M63">
-        <v>9645.637034630709</v>
+        <v>12498.93330460857</v>
       </c>
       <c r="N63">
-        <v>44360104247.05219</v>
+        <v>55655867972.08572</v>
       </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64">
-        <v>90</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64">
-        <v>0.5</v>
-      </c>
-      <c r="F64">
-        <v>1115970.9</v>
-      </c>
-      <c r="G64">
-        <v>3000</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>55734169222.36889</v>
-      </c>
-      <c r="M64">
-        <v>10007.33768147751</v>
-      </c>
-      <c r="N64">
-        <v>43894103002.85053</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65">
-        <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65">
-        <v>0.5</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>3000</v>
-      </c>
-      <c r="H65">
-        <v>30000</v>
-      </c>
-      <c r="I65">
-        <v>30000</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>56680079681.56863</v>
-      </c>
-      <c r="M65">
-        <v>12080.46240998385</v>
-      </c>
-      <c r="N65">
-        <v>55702319150.28203</v>
-      </c>
-      <c r="O65">
-        <v>7</v>
-      </c>
-      <c r="P65">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66">
-        <v>0.5</v>
-      </c>
-      <c r="F66">
-        <v>1115970.9</v>
-      </c>
-      <c r="G66">
-        <v>3000</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>55738139841.46416</v>
-      </c>
-      <c r="M66">
-        <v>10177.14607948956</v>
-      </c>
-      <c r="N66">
-        <v>43678913373.93842</v>
-      </c>
-      <c r="O66">
-        <v>7</v>
-      </c>
-      <c r="P66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67">
-        <v>90</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67">
-        <v>0.5</v>
-      </c>
-      <c r="F67">
-        <v>1115970.9</v>
-      </c>
-      <c r="G67">
-        <v>3000</v>
-      </c>
-      <c r="H67">
-        <v>30000</v>
-      </c>
-      <c r="I67">
-        <v>30000</v>
-      </c>
-      <c r="J67" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67">
-        <v>0.1</v>
-      </c>
-      <c r="L67">
-        <v>52705448649.06591</v>
-      </c>
-      <c r="M67">
-        <v>10713.76808913872</v>
-      </c>
-      <c r="N67">
-        <v>40107641323.5396</v>
-      </c>
-      <c r="O67">
-        <v>7</v>
-      </c>
-      <c r="P67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68">
-        <v>0.5</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>3000</v>
-      </c>
-      <c r="H68">
-        <v>30000</v>
-      </c>
-      <c r="I68">
-        <v>30000</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68">
-        <v>0.1</v>
-      </c>
-      <c r="L68">
-        <v>56489219641.55998</v>
-      </c>
-      <c r="M68">
-        <v>82591.51436385387</v>
-      </c>
-      <c r="N68">
-        <v>49419158491.21915</v>
-      </c>
-      <c r="O68">
-        <v>7</v>
-      </c>
-      <c r="P68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>90</v>
-      </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69">
-        <v>0.5</v>
-      </c>
-      <c r="F69">
-        <v>1115970.9</v>
-      </c>
-      <c r="G69">
-        <v>3000</v>
-      </c>
-      <c r="H69">
-        <v>30000</v>
-      </c>
-      <c r="I69">
-        <v>30000</v>
-      </c>
-      <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>55848690720.39031</v>
-      </c>
-      <c r="M69">
-        <v>9884.853172690518</v>
-      </c>
-      <c r="N69">
-        <v>44142441480.69099</v>
-      </c>
-      <c r="O69">
-        <v>7</v>
-      </c>
-      <c r="P69">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
